--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_22_14.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_22_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2048637.272161368</v>
+        <v>-2049304.068281617</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>397594.7381667054</v>
+        <v>397594.7381667055</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058541</v>
+        <v>632041.4518058538</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15400833.34133763</v>
+        <v>15400833.34133764</v>
       </c>
     </row>
     <row r="11">
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.58881163589395</v>
+        <v>22.58881163589389</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>17.76019284593434</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>32.46026723633198</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>50.22046008226636</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>76.12016538070533</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.044035583042483</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="T12" t="n">
-        <v>82.66266089709396</v>
+        <v>70.07612979766324</v>
       </c>
       <c r="U12" t="n">
-        <v>32.5748598779371</v>
+        <v>32.57485987793704</v>
       </c>
       <c r="V12" t="n">
-        <v>35.99613671235119</v>
+        <v>35.99613671235113</v>
       </c>
       <c r="W12" t="n">
-        <v>62.05179937396053</v>
+        <v>62.05179937396048</v>
       </c>
       <c r="X12" t="n">
-        <v>12.66013023641955</v>
+        <v>12.66013023641949</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.73150193097456</v>
+        <v>18.7315019309745</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>30.69078435787944</v>
+        <v>30.69078435787938</v>
       </c>
       <c r="T13" t="n">
-        <v>19.08561116512927</v>
+        <v>19.08561116512921</v>
       </c>
       <c r="U13" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="V13" t="n">
-        <v>40.45623098139885</v>
+        <v>40.45623098139879</v>
       </c>
       <c r="W13" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="X13" t="n">
-        <v>17.26667120519147</v>
+        <v>17.26667120519141</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.48848861111736</v>
+        <v>12.4884886111173</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>33.73507956837184</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.22046008226648</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="I14" t="n">
-        <v>35.891058116818</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.58881163589403</v>
+        <v>22.58881163589389</v>
       </c>
       <c r="T14" t="n">
-        <v>17.76019284593449</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>45.49679044823574</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="W14" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
     </row>
     <row r="15">
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>65.82808979243332</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.86424478979234</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.044035583042483</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>10.29207558827157</v>
+        <v>10.29207558827142</v>
       </c>
       <c r="U15" t="n">
-        <v>32.57485987793719</v>
+        <v>32.57485987793704</v>
       </c>
       <c r="V15" t="n">
-        <v>35.99613671235127</v>
+        <v>35.99613671235113</v>
       </c>
       <c r="W15" t="n">
-        <v>62.05179937396062</v>
+        <v>62.05179937396048</v>
       </c>
       <c r="X15" t="n">
-        <v>12.66013023641963</v>
+        <v>12.66013023641949</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.73150193097464</v>
+        <v>26.65131135057398</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>30.69078435787953</v>
+        <v>30.69078435787938</v>
       </c>
       <c r="T16" t="n">
-        <v>19.08561116512935</v>
+        <v>19.08561116512921</v>
       </c>
       <c r="U16" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="V16" t="n">
-        <v>40.45623098139893</v>
+        <v>40.45623098139879</v>
       </c>
       <c r="W16" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="X16" t="n">
-        <v>17.26667120519156</v>
+        <v>17.26667120519141</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.48848861111745</v>
+        <v>12.4884886111173</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>14.0420708326622</v>
       </c>
       <c r="D17" t="n">
-        <v>1.608733093710669</v>
+        <v>1.608733093711196</v>
       </c>
       <c r="E17" t="n">
         <v>35.31548551311954</v>
@@ -1856,7 +1856,7 @@
         <v>67.03582309149687</v>
       </c>
       <c r="G17" t="n">
-        <v>82.66266089709394</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="H17" t="n">
         <v>10.73420125866866</v>
@@ -1923,19 +1923,19 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>72.80927171816033</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1965,22 +1965,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.044035583042483</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>66.7652361351179</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>67.03582309149687</v>
       </c>
       <c r="G20" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="H20" t="n">
         <v>10.73420125866863</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>72.80927171816033</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>66.7652361351179</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.044035583042483</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2211,22 +2211,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>37.92381382931671</v>
+        <v>37.92381382931677</v>
       </c>
       <c r="C23" t="n">
-        <v>14.0420708326622</v>
+        <v>14.04207083266226</v>
       </c>
       <c r="D23" t="n">
-        <v>1.608733093710669</v>
+        <v>1.608733093710725</v>
       </c>
       <c r="E23" t="n">
-        <v>35.31548551311954</v>
+        <v>35.3154855131196</v>
       </c>
       <c r="F23" t="n">
-        <v>67.03582309149687</v>
+        <v>67.03582309149692</v>
       </c>
       <c r="G23" t="n">
         <v>82.66266089709399</v>
       </c>
       <c r="H23" t="n">
-        <v>10.73420125866863</v>
+        <v>10.73420125866869</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.733037277250276</v>
+        <v>1.733037277250332</v>
       </c>
       <c r="X23" t="n">
-        <v>23.61928774618951</v>
+        <v>23.61928774618957</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.12214086993328</v>
+        <v>46.12214086993333</v>
       </c>
     </row>
     <row r="24">
@@ -2397,58 +2397,58 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>6.044035583042483</v>
+      </c>
+      <c r="R24" t="n">
         <v>82.66266089709399</v>
       </c>
-      <c r="D24" t="n">
+      <c r="S24" t="n">
         <v>82.66266089709399</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>72.80927171816036</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>66.7652361351179</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2561,19 +2561,19 @@
         <v>124.9266809740328</v>
       </c>
       <c r="E26" t="n">
-        <v>158.6334333934417</v>
+        <v>158.6334333934416</v>
       </c>
       <c r="F26" t="n">
         <v>190.353770971819</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9806087774161</v>
+        <v>205.980608777416</v>
       </c>
       <c r="H26" t="n">
-        <v>134.0521491389908</v>
+        <v>134.0521491389907</v>
       </c>
       <c r="I26" t="n">
-        <v>27.6983636516745</v>
+        <v>27.69836365167447</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39611717075052</v>
+        <v>14.39611717075047</v>
       </c>
       <c r="T26" t="n">
-        <v>9.567498380790967</v>
+        <v>9.567498380790937</v>
       </c>
       <c r="U26" t="n">
-        <v>37.30409598309222</v>
+        <v>37.3040959830922</v>
       </c>
       <c r="V26" t="n">
         <v>108.0343049409575</v>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>51.69507609386941</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.044035583042486</v>
+        <v>6.044035583042483</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2685,19 +2685,19 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.099381123128048</v>
+        <v>2.099381123128019</v>
       </c>
       <c r="U27" t="n">
-        <v>24.38216541279367</v>
+        <v>24.38216541279364</v>
       </c>
       <c r="V27" t="n">
-        <v>27.80344224720776</v>
+        <v>72.09824647498598</v>
       </c>
       <c r="W27" t="n">
-        <v>53.8591049088171</v>
+        <v>53.85910490881707</v>
       </c>
       <c r="X27" t="n">
-        <v>4.467435771276115</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
         <v>223.3842861340256</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.49808989273601</v>
+        <v>22.49808989273598</v>
       </c>
       <c r="T28" t="n">
-        <v>10.89291669998583</v>
+        <v>10.8929166999858</v>
       </c>
       <c r="U28" t="n">
-        <v>75.81078260145014</v>
+        <v>75.81078260145011</v>
       </c>
       <c r="V28" t="n">
-        <v>32.26353651625541</v>
+        <v>32.26353651625539</v>
       </c>
       <c r="W28" t="n">
-        <v>77.46522842114084</v>
+        <v>77.46522842114081</v>
       </c>
       <c r="X28" t="n">
-        <v>9.073976740048039</v>
+        <v>9.07397674004801</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.295794145973929</v>
+        <v>4.2957941459739</v>
       </c>
     </row>
     <row r="29">
@@ -2792,16 +2792,16 @@
         <v>161.2417617096388</v>
       </c>
       <c r="C29" t="n">
-        <v>137.3600187129842</v>
+        <v>137.3600187129843</v>
       </c>
       <c r="D29" t="n">
-        <v>124.9266809740327</v>
+        <v>124.9266809740328</v>
       </c>
       <c r="E29" t="n">
         <v>158.6334333934416</v>
       </c>
       <c r="F29" t="n">
-        <v>190.3537709718189</v>
+        <v>190.353770971819</v>
       </c>
       <c r="G29" t="n">
         <v>205.980608777416</v>
@@ -2810,7 +2810,7 @@
         <v>134.0521491389907</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69836365167441</v>
+        <v>27.69836365167447</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.39611717075043</v>
+        <v>14.39611717075047</v>
       </c>
       <c r="T29" t="n">
-        <v>9.567498380790882</v>
+        <v>9.567498380790937</v>
       </c>
       <c r="U29" t="n">
-        <v>37.30409598309214</v>
+        <v>37.3040959830922</v>
       </c>
       <c r="V29" t="n">
-        <v>108.0343049409574</v>
+        <v>108.0343049409575</v>
       </c>
       <c r="W29" t="n">
-        <v>125.0509851575723</v>
+        <v>125.0509851575724</v>
       </c>
       <c r="X29" t="n">
         <v>146.9372356265116</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.4400887502553</v>
+        <v>169.4400887502554</v>
       </c>
     </row>
     <row r="30">
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>137.5112449474278</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>125.6730735315877</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.044035583042483</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.099381123127963</v>
+        <v>2.099381123128019</v>
       </c>
       <c r="U30" t="n">
-        <v>24.38216541279358</v>
+        <v>24.38216541279364</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>27.80344224720773</v>
       </c>
       <c r="W30" t="n">
-        <v>53.85910490881702</v>
+        <v>53.85910490881707</v>
       </c>
       <c r="X30" t="n">
-        <v>4.46743577127603</v>
+        <v>4.467435771276087</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.53880746583104</v>
+        <v>144.6017595557541</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.49808989273592</v>
+        <v>22.49808989273598</v>
       </c>
       <c r="T31" t="n">
-        <v>10.89291669998575</v>
+        <v>10.8929166999858</v>
       </c>
       <c r="U31" t="n">
-        <v>75.81078260145006</v>
+        <v>75.81078260145011</v>
       </c>
       <c r="V31" t="n">
-        <v>32.26353651625533</v>
+        <v>32.26353651625539</v>
       </c>
       <c r="W31" t="n">
-        <v>77.46522842114075</v>
+        <v>77.46522842114081</v>
       </c>
       <c r="X31" t="n">
-        <v>9.073976740047954</v>
+        <v>9.07397674004801</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.295794145973844</v>
+        <v>4.2957941459739</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>161.2417617096388</v>
       </c>
       <c r="C32" t="n">
-        <v>137.3600187129842</v>
+        <v>137.3600187129843</v>
       </c>
       <c r="D32" t="n">
         <v>124.9266809740327</v>
@@ -3047,7 +3047,7 @@
         <v>134.0521491389907</v>
       </c>
       <c r="I32" t="n">
-        <v>27.6983636516744</v>
+        <v>27.69836365167443</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.39611717075043</v>
+        <v>14.39611717075046</v>
       </c>
       <c r="T32" t="n">
-        <v>9.567498380790882</v>
+        <v>9.56749838079091</v>
       </c>
       <c r="U32" t="n">
-        <v>37.30409598309214</v>
+        <v>37.30409598309217</v>
       </c>
       <c r="V32" t="n">
-        <v>108.0343049409574</v>
+        <v>108.0343049409575</v>
       </c>
       <c r="W32" t="n">
         <v>125.0509851575723</v>
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>86.08494812469957</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>148.7381381529399</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.044035583042483</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.099381123127963</v>
+        <v>110.5015258661608</v>
       </c>
       <c r="U33" t="n">
-        <v>24.38216541279358</v>
+        <v>24.38216541279361</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>27.8034422472077</v>
       </c>
       <c r="W33" t="n">
-        <v>53.85910490881702</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>4.46743577127603</v>
+        <v>4.467435771276058</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.53880746583104</v>
+        <v>10.53880746583107</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.49808989273592</v>
+        <v>22.49808989273595</v>
       </c>
       <c r="T34" t="n">
-        <v>10.89291669998575</v>
+        <v>10.89291669998578</v>
       </c>
       <c r="U34" t="n">
-        <v>75.81078260145006</v>
+        <v>75.81078260145009</v>
       </c>
       <c r="V34" t="n">
-        <v>32.26353651625533</v>
+        <v>32.26353651625536</v>
       </c>
       <c r="W34" t="n">
-        <v>77.46522842114075</v>
+        <v>77.46522842114078</v>
       </c>
       <c r="X34" t="n">
-        <v>9.073976740047954</v>
+        <v>9.073976740047982</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.295794145973844</v>
+        <v>4.295794145973872</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>14.47073914786904</v>
+        <v>14.47073914786903</v>
       </c>
       <c r="V35" t="n">
         <v>85.20094810573434</v>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.1407760227504</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>51.86424478979234</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.044035583042486</v>
+        <v>6.044035583042483</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3402,13 +3402,13 @@
         <v>237.2276440809881</v>
       </c>
       <c r="V36" t="n">
-        <v>78.87507949473066</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>31.02574807359392</v>
+        <v>115.0779518042163</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>138.4084048744157</v>
+        <v>138.4084048744156</v>
       </c>
       <c r="C38" t="n">
         <v>114.5266618777611</v>
       </c>
       <c r="D38" t="n">
-        <v>102.0933241388096</v>
+        <v>102.0933241388095</v>
       </c>
       <c r="E38" t="n">
-        <v>135.8000765582185</v>
+        <v>135.8000765582184</v>
       </c>
       <c r="F38" t="n">
-        <v>167.5204141365958</v>
+        <v>167.5204141365957</v>
       </c>
       <c r="G38" t="n">
-        <v>183.1472519421929</v>
+        <v>183.1472519421928</v>
       </c>
       <c r="H38" t="n">
-        <v>111.2187923037676</v>
+        <v>111.2187923037675</v>
       </c>
       <c r="I38" t="n">
-        <v>4.865006816451313</v>
+        <v>4.865006816451256</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>14.47073914786904</v>
+        <v>14.47073914786898</v>
       </c>
       <c r="V38" t="n">
-        <v>85.20094810573434</v>
+        <v>85.20094810573428</v>
       </c>
       <c r="W38" t="n">
         <v>102.2176283223492</v>
       </c>
       <c r="X38" t="n">
-        <v>124.1038787912885</v>
+        <v>124.1038787912884</v>
       </c>
       <c r="Y38" t="n">
         <v>146.6067319150322</v>
@@ -3579,16 +3579,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>107.1407760227504</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3624,28 +3624,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.044035583042483</v>
       </c>
       <c r="R39" t="n">
-        <v>134.3183216232903</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9448597913225</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>1.548808577570483</v>
+        <v>237.2276440809881</v>
       </c>
       <c r="V39" t="n">
-        <v>4.97008541198457</v>
+        <v>147.7833359843231</v>
       </c>
       <c r="W39" t="n">
-        <v>31.02574807359392</v>
+        <v>31.02574807359386</v>
       </c>
       <c r="X39" t="n">
-        <v>92.22740185587971</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>52.97742576622696</v>
+        <v>52.9774257662269</v>
       </c>
       <c r="V40" t="n">
-        <v>9.430179681032229</v>
+        <v>9.430179681032172</v>
       </c>
       <c r="W40" t="n">
-        <v>54.63187158591765</v>
+        <v>54.63187158591759</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>138.4084048744157</v>
+        <v>138.4084048744156</v>
       </c>
       <c r="C41" t="n">
         <v>114.5266618777611</v>
       </c>
       <c r="D41" t="n">
-        <v>102.0933241388096</v>
+        <v>102.0933241388095</v>
       </c>
       <c r="E41" t="n">
-        <v>135.8000765582185</v>
+        <v>135.8000765582184</v>
       </c>
       <c r="F41" t="n">
-        <v>167.5204141365958</v>
+        <v>167.5204141365957</v>
       </c>
       <c r="G41" t="n">
-        <v>183.1472519421929</v>
+        <v>183.1472519421928</v>
       </c>
       <c r="H41" t="n">
-        <v>111.2187923037676</v>
+        <v>111.2187923037675</v>
       </c>
       <c r="I41" t="n">
-        <v>4.865006816451313</v>
+        <v>4.865006816451256</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>14.47073914786903</v>
+        <v>14.47073914786898</v>
       </c>
       <c r="V41" t="n">
-        <v>85.20094810573434</v>
+        <v>85.20094810573428</v>
       </c>
       <c r="W41" t="n">
         <v>102.2176283223492</v>
       </c>
       <c r="X41" t="n">
-        <v>124.1038787912885</v>
+        <v>124.1038787912884</v>
       </c>
       <c r="Y41" t="n">
         <v>146.6067319150322</v>
@@ -3822,16 +3822,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>153.7811265323924</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>66.27125287125837</v>
       </c>
       <c r="H42" t="n">
         <v>125.6730735315877</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>51.86424478979234</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3861,28 +3861,28 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.044035583042483</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.4706822307765</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>1.548808577570483</v>
+        <v>1.548808577570426</v>
       </c>
       <c r="V42" t="n">
-        <v>4.97008541198457</v>
+        <v>4.970085411984513</v>
       </c>
       <c r="W42" t="n">
-        <v>31.02574807359392</v>
+        <v>31.02574807359386</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>52.97742576622696</v>
+        <v>52.9774257662269</v>
       </c>
       <c r="V43" t="n">
-        <v>9.430179681032229</v>
+        <v>9.430179681032172</v>
       </c>
       <c r="W43" t="n">
-        <v>54.63187158591765</v>
+        <v>54.63187158591759</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4068,16 +4068,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>108.7389029198746</v>
+        <v>148.7381381529399</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>107.1407760227504</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>51.86424478979234</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,10 +4098,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.044035583042486</v>
+        <v>6.044035583042483</v>
       </c>
       <c r="R45" t="n">
-        <v>134.3183216232903</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276440809881</v>
+        <v>72.2977356878439</v>
       </c>
       <c r="V45" t="n">
         <v>4.97008541198457</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>31.02574807359392</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>257.1059246811433</v>
+      </c>
+      <c r="C11" t="n">
+        <v>257.1059246811433</v>
+      </c>
+      <c r="D11" t="n">
+        <v>257.1059246811433</v>
+      </c>
+      <c r="E11" t="n">
         <v>173.6082874113513</v>
       </c>
-      <c r="C11" t="n">
+      <c r="F11" t="n">
         <v>173.6082874113513</v>
       </c>
-      <c r="D11" t="n">
-        <v>173.6082874113513</v>
-      </c>
-      <c r="E11" t="n">
-        <v>90.1106501415594</v>
-      </c>
-      <c r="F11" t="n">
-        <v>90.1106501415594</v>
-      </c>
       <c r="G11" t="n">
-        <v>6.613012871767516</v>
+        <v>90.11065014155943</v>
       </c>
       <c r="H11" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I11" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J11" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K11" t="n">
-        <v>86.50633016252155</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L11" t="n">
-        <v>135.1152860209544</v>
+        <v>55.22196873020037</v>
       </c>
       <c r="M11" t="n">
-        <v>216.9513203090774</v>
+        <v>137.0580030183234</v>
       </c>
       <c r="N11" t="n">
-        <v>294.4140979734619</v>
+        <v>214.5207806827079</v>
       </c>
       <c r="O11" t="n">
-        <v>330.6506435883758</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="P11" t="n">
-        <v>330.6506435883758</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="Q11" t="n">
-        <v>330.6506435883758</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="R11" t="n">
-        <v>330.6506435883758</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="S11" t="n">
-        <v>307.8336621379779</v>
+        <v>307.8336621379781</v>
       </c>
       <c r="T11" t="n">
-        <v>307.8336621379779</v>
+        <v>289.894073404711</v>
       </c>
       <c r="U11" t="n">
-        <v>307.8336621379779</v>
+        <v>257.1059246811433</v>
       </c>
       <c r="V11" t="n">
-        <v>307.8336621379779</v>
+        <v>257.1059246811433</v>
       </c>
       <c r="W11" t="n">
-        <v>307.8336621379779</v>
+        <v>257.1059246811433</v>
       </c>
       <c r="X11" t="n">
-        <v>257.1059246811432</v>
+        <v>257.1059246811433</v>
       </c>
       <c r="Y11" t="n">
-        <v>173.6082874113513</v>
+        <v>257.1059246811433</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>83.50206881187391</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="C12" t="n">
-        <v>83.50206881187391</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="D12" t="n">
-        <v>83.50206881187391</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="E12" t="n">
-        <v>83.50206881187391</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="F12" t="n">
-        <v>83.50206881187391</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="G12" t="n">
-        <v>83.50206881187391</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="H12" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I12" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J12" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K12" t="n">
-        <v>45.61006634330795</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L12" t="n">
-        <v>127.446100631431</v>
+        <v>85.14254072400681</v>
       </c>
       <c r="M12" t="n">
-        <v>166.9785750121298</v>
+        <v>166.9785750121299</v>
       </c>
       <c r="N12" t="n">
-        <v>166.9785750121298</v>
+        <v>248.8146093002529</v>
       </c>
       <c r="O12" t="n">
-        <v>248.8146093002528</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="P12" t="n">
-        <v>330.6506435883758</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.6506435883758</v>
+        <v>324.5455571408583</v>
       </c>
       <c r="R12" t="n">
-        <v>330.6506435883758</v>
+        <v>324.5455571408583</v>
       </c>
       <c r="S12" t="n">
-        <v>330.6506435883758</v>
+        <v>241.0479198710664</v>
       </c>
       <c r="T12" t="n">
-        <v>247.1530063185839</v>
+        <v>170.2639503784773</v>
       </c>
       <c r="U12" t="n">
-        <v>214.2491074519808</v>
+        <v>137.3600515118742</v>
       </c>
       <c r="V12" t="n">
-        <v>177.8893733991008</v>
+        <v>101.0003174589943</v>
       </c>
       <c r="W12" t="n">
-        <v>115.2107881728781</v>
+        <v>38.32173223277156</v>
       </c>
       <c r="X12" t="n">
-        <v>102.4227778330603</v>
+        <v>25.53372189295389</v>
       </c>
       <c r="Y12" t="n">
-        <v>83.50206881187391</v>
+        <v>6.613012871767519</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="C13" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="D13" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="E13" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="F13" t="n">
-        <v>9.736752350542744</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="G13" t="n">
-        <v>9.736752350542744</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="H13" t="n">
-        <v>9.736752350542744</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I13" t="n">
-        <v>49.299968709322</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J13" t="n">
-        <v>131.136002997445</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="K13" t="n">
-        <v>131.136002997445</v>
+        <v>170.2850814480136</v>
       </c>
       <c r="L13" t="n">
-        <v>131.136002997445</v>
+        <v>252.1211157361367</v>
       </c>
       <c r="M13" t="n">
-        <v>212.972037285568</v>
+        <v>294.8080715736909</v>
       </c>
       <c r="N13" t="n">
-        <v>212.972037285568</v>
+        <v>294.8080715736909</v>
       </c>
       <c r="O13" t="n">
-        <v>212.972037285568</v>
+        <v>294.8080715736909</v>
       </c>
       <c r="P13" t="n">
-        <v>294.8080715736911</v>
+        <v>294.8080715736909</v>
       </c>
       <c r="Q13" t="n">
-        <v>294.8080715736911</v>
+        <v>294.8080715736909</v>
       </c>
       <c r="R13" t="n">
-        <v>294.8080715736911</v>
+        <v>294.8080715736909</v>
       </c>
       <c r="S13" t="n">
-        <v>263.8072792930047</v>
+        <v>263.8072792930046</v>
       </c>
       <c r="T13" t="n">
-        <v>244.5288841767126</v>
+        <v>244.5288841767125</v>
       </c>
       <c r="U13" t="n">
-        <v>161.0312469069207</v>
+        <v>161.0312469069206</v>
       </c>
       <c r="V13" t="n">
         <v>120.1663671277299</v>
       </c>
       <c r="W13" t="n">
-        <v>36.66872985793806</v>
+        <v>36.66872985793795</v>
       </c>
       <c r="X13" t="n">
-        <v>19.22764783249212</v>
+        <v>19.22764783249207</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>160.4400821468019</v>
+        <v>140.8383875983943</v>
       </c>
       <c r="C14" t="n">
-        <v>126.3642441989513</v>
+        <v>140.8383875983943</v>
       </c>
       <c r="D14" t="n">
-        <v>42.86660692915944</v>
+        <v>140.8383875983943</v>
       </c>
       <c r="E14" t="n">
-        <v>42.86660692915944</v>
+        <v>140.8383875983943</v>
       </c>
       <c r="F14" t="n">
-        <v>42.86660692915944</v>
+        <v>140.8383875983943</v>
       </c>
       <c r="G14" t="n">
-        <v>42.86660692915944</v>
+        <v>90.11065014155943</v>
       </c>
       <c r="H14" t="n">
-        <v>42.86660692915944</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I14" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J14" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K14" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L14" t="n">
-        <v>88.44904715989054</v>
+        <v>55.22196873020037</v>
       </c>
       <c r="M14" t="n">
-        <v>170.2850814480136</v>
+        <v>137.0580030183234</v>
       </c>
       <c r="N14" t="n">
-        <v>247.7478591123981</v>
+        <v>214.5207806827079</v>
       </c>
       <c r="O14" t="n">
-        <v>329.5838934005211</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="P14" t="n">
-        <v>330.6506435883758</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="Q14" t="n">
-        <v>330.6506435883758</v>
+        <v>320.2255419648573</v>
       </c>
       <c r="R14" t="n">
-        <v>330.6506435883758</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="S14" t="n">
-        <v>307.8336621379778</v>
+        <v>307.8336621379781</v>
       </c>
       <c r="T14" t="n">
-        <v>289.8940734047106</v>
+        <v>307.8336621379781</v>
       </c>
       <c r="U14" t="n">
-        <v>243.9377194165938</v>
+        <v>307.8336621379781</v>
       </c>
       <c r="V14" t="n">
-        <v>243.9377194165938</v>
+        <v>224.3360248681862</v>
       </c>
       <c r="W14" t="n">
-        <v>160.4400821468019</v>
+        <v>224.3360248681862</v>
       </c>
       <c r="X14" t="n">
-        <v>160.4400821468019</v>
+        <v>224.3360248681862</v>
       </c>
       <c r="Y14" t="n">
-        <v>160.4400821468019</v>
+        <v>140.8383875983943</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>156.6036701339163</v>
+        <v>59.00113892206281</v>
       </c>
       <c r="C15" t="n">
-        <v>156.6036701339163</v>
+        <v>59.00113892206281</v>
       </c>
       <c r="D15" t="n">
-        <v>73.10603286412442</v>
+        <v>59.00113892206281</v>
       </c>
       <c r="E15" t="n">
-        <v>73.10603286412442</v>
+        <v>59.00113892206281</v>
       </c>
       <c r="F15" t="n">
-        <v>73.10603286412442</v>
+        <v>59.00113892206281</v>
       </c>
       <c r="G15" t="n">
-        <v>6.613012871767516</v>
+        <v>59.00113892206281</v>
       </c>
       <c r="H15" t="n">
-        <v>6.613012871767516</v>
+        <v>59.00113892206281</v>
       </c>
       <c r="I15" t="n">
-        <v>6.613012871767516</v>
+        <v>59.00113892206281</v>
       </c>
       <c r="J15" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K15" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L15" t="n">
-        <v>85.14254072400678</v>
+        <v>85.14254072400681</v>
       </c>
       <c r="M15" t="n">
-        <v>85.14254072400678</v>
+        <v>166.9785750121299</v>
       </c>
       <c r="N15" t="n">
-        <v>166.9785750121298</v>
+        <v>166.9785750121299</v>
       </c>
       <c r="O15" t="n">
-        <v>248.8146093002528</v>
+        <v>248.8146093002529</v>
       </c>
       <c r="P15" t="n">
-        <v>330.6506435883758</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="Q15" t="n">
-        <v>330.6506435883758</v>
+        <v>324.5455571408583</v>
       </c>
       <c r="R15" t="n">
-        <v>330.6506435883758</v>
+        <v>241.0479198710664</v>
       </c>
       <c r="S15" t="n">
-        <v>330.6506435883758</v>
+        <v>241.0479198710664</v>
       </c>
       <c r="T15" t="n">
-        <v>320.2546076406268</v>
+        <v>230.6518839233175</v>
       </c>
       <c r="U15" t="n">
-        <v>287.3507087740235</v>
+        <v>197.7479850567144</v>
       </c>
       <c r="V15" t="n">
-        <v>250.9909747211435</v>
+        <v>161.3882510038345</v>
       </c>
       <c r="W15" t="n">
-        <v>188.3123894949206</v>
+        <v>98.70966577761178</v>
       </c>
       <c r="X15" t="n">
-        <v>175.5243791551028</v>
+        <v>85.9216554377941</v>
       </c>
       <c r="Y15" t="n">
-        <v>156.6036701339163</v>
+        <v>59.00113892206281</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.613012871767516</v>
+        <v>33.37851777446971</v>
       </c>
       <c r="C16" t="n">
-        <v>6.613012871767516</v>
+        <v>68.95390307641833</v>
       </c>
       <c r="D16" t="n">
-        <v>65.48844548458437</v>
+        <v>127.8293356892353</v>
       </c>
       <c r="E16" t="n">
-        <v>65.48844548458437</v>
+        <v>190.1762122501532</v>
       </c>
       <c r="F16" t="n">
-        <v>65.48844548458437</v>
+        <v>255.2448552149116</v>
       </c>
       <c r="G16" t="n">
-        <v>65.48844548458437</v>
+        <v>255.2448552149116</v>
       </c>
       <c r="H16" t="n">
-        <v>65.48844548458437</v>
+        <v>255.2448552149116</v>
       </c>
       <c r="I16" t="n">
-        <v>65.48844548458437</v>
+        <v>294.8080715736909</v>
       </c>
       <c r="J16" t="n">
-        <v>65.48844548458437</v>
+        <v>294.8080715736909</v>
       </c>
       <c r="K16" t="n">
-        <v>147.3244797727074</v>
+        <v>294.8080715736909</v>
       </c>
       <c r="L16" t="n">
-        <v>229.1605140608304</v>
+        <v>294.8080715736909</v>
       </c>
       <c r="M16" t="n">
-        <v>229.1605140608304</v>
+        <v>294.8080715736909</v>
       </c>
       <c r="N16" t="n">
-        <v>294.8080715736914</v>
+        <v>294.8080715736909</v>
       </c>
       <c r="O16" t="n">
-        <v>294.8080715736914</v>
+        <v>294.8080715736909</v>
       </c>
       <c r="P16" t="n">
-        <v>294.8080715736914</v>
+        <v>294.8080715736909</v>
       </c>
       <c r="Q16" t="n">
-        <v>294.8080715736914</v>
+        <v>294.8080715736909</v>
       </c>
       <c r="R16" t="n">
-        <v>294.8080715736914</v>
+        <v>294.8080715736909</v>
       </c>
       <c r="S16" t="n">
-        <v>263.8072792930051</v>
+        <v>263.8072792930046</v>
       </c>
       <c r="T16" t="n">
-        <v>244.5288841767128</v>
+        <v>244.5288841767125</v>
       </c>
       <c r="U16" t="n">
-        <v>161.031246906921</v>
+        <v>161.0312469069206</v>
       </c>
       <c r="V16" t="n">
-        <v>120.1663671277301</v>
+        <v>120.1663671277299</v>
       </c>
       <c r="W16" t="n">
-        <v>36.66872985793823</v>
+        <v>36.66872985793795</v>
       </c>
       <c r="X16" t="n">
-        <v>19.22764783249221</v>
+        <v>19.22764783249207</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>220.147330737174</v>
+        <v>220.1473307371741</v>
       </c>
       <c r="C17" t="n">
-        <v>205.963420805192</v>
+        <v>205.9634208051921</v>
       </c>
       <c r="D17" t="n">
-        <v>204.3384378822519</v>
+        <v>204.3384378822515</v>
       </c>
       <c r="E17" t="n">
-        <v>168.6662302932422</v>
+        <v>168.6662302932418</v>
       </c>
       <c r="F17" t="n">
-        <v>100.9532776755686</v>
+        <v>100.9532776755682</v>
       </c>
       <c r="G17" t="n">
         <v>17.45564040577626</v>
       </c>
       <c r="H17" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I17" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J17" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K17" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L17" t="n">
-        <v>55.22196873020036</v>
+        <v>55.22196873020037</v>
       </c>
       <c r="M17" t="n">
         <v>137.0580030183234</v>
@@ -5540,25 +5540,25 @@
         <v>250.7573262976218</v>
       </c>
       <c r="S17" t="n">
-        <v>315.5198370784049</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="T17" t="n">
-        <v>315.5198370784049</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="U17" t="n">
-        <v>315.5198370784049</v>
+        <v>315.519837078405</v>
       </c>
       <c r="V17" t="n">
-        <v>330.6506435883758</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="W17" t="n">
-        <v>328.9001008840826</v>
+        <v>328.9001008840827</v>
       </c>
       <c r="X17" t="n">
-        <v>305.0422344737902</v>
+        <v>305.0422344737903</v>
       </c>
       <c r="Y17" t="n">
-        <v>258.4542133930495</v>
+        <v>258.4542133930496</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>330.6506435883758</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="C18" t="n">
-        <v>247.1530063185839</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="D18" t="n">
-        <v>247.1530063185839</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="E18" t="n">
+        <v>6.613012871767519</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6.613012871767519</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6.613012871767519</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6.613012871767519</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6.613012871767519</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6.613012871767519</v>
+      </c>
+      <c r="K18" t="n">
+        <v>6.613012871767519</v>
+      </c>
+      <c r="L18" t="n">
+        <v>88.44904715989057</v>
+      </c>
+      <c r="M18" t="n">
+        <v>88.44904715989057</v>
+      </c>
+      <c r="N18" t="n">
+        <v>166.9785750121299</v>
+      </c>
+      <c r="O18" t="n">
+        <v>248.8146093002529</v>
+      </c>
+      <c r="P18" t="n">
+        <v>330.6506435883759</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>324.5455571408583</v>
+      </c>
+      <c r="R18" t="n">
+        <v>241.0479198710664</v>
+      </c>
+      <c r="S18" t="n">
         <v>173.6082874113513</v>
       </c>
-      <c r="F18" t="n">
-        <v>90.1106501415594</v>
-      </c>
-      <c r="G18" t="n">
-        <v>6.613012871767516</v>
-      </c>
-      <c r="H18" t="n">
-        <v>6.613012871767516</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6.613012871767516</v>
-      </c>
-      <c r="J18" t="n">
-        <v>6.613012871767516</v>
-      </c>
-      <c r="K18" t="n">
-        <v>6.613012871767516</v>
-      </c>
-      <c r="L18" t="n">
-        <v>88.44904715989054</v>
-      </c>
-      <c r="M18" t="n">
-        <v>166.9785750121298</v>
-      </c>
-      <c r="N18" t="n">
-        <v>248.8146093002528</v>
-      </c>
-      <c r="O18" t="n">
-        <v>330.6506435883758</v>
-      </c>
-      <c r="P18" t="n">
-        <v>330.6506435883758</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>330.6506435883758</v>
-      </c>
-      <c r="R18" t="n">
-        <v>330.6506435883758</v>
-      </c>
-      <c r="S18" t="n">
-        <v>330.6506435883758</v>
-      </c>
       <c r="T18" t="n">
-        <v>330.6506435883758</v>
+        <v>173.6082874113513</v>
       </c>
       <c r="U18" t="n">
-        <v>330.6506435883758</v>
+        <v>90.11065014155943</v>
       </c>
       <c r="V18" t="n">
-        <v>330.6506435883758</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="W18" t="n">
-        <v>330.6506435883758</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="X18" t="n">
-        <v>330.6506435883758</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Y18" t="n">
-        <v>330.6506435883758</v>
+        <v>6.613012871767519</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="C19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="D19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="E19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="F19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="G19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="H19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="M19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="N19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="O19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="P19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="R19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="S19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="T19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="U19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="V19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="W19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="X19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>220.147330737174</v>
+        <v>220.1473307371741</v>
       </c>
       <c r="C20" t="n">
-        <v>205.963420805192</v>
+        <v>205.9634208051921</v>
       </c>
       <c r="D20" t="n">
-        <v>204.3384378822518</v>
+        <v>204.3384378822519</v>
       </c>
       <c r="E20" t="n">
-        <v>168.6662302932422</v>
+        <v>168.6662302932423</v>
       </c>
       <c r="F20" t="n">
-        <v>100.9532776755685</v>
+        <v>100.9532776755686</v>
       </c>
       <c r="G20" t="n">
         <v>17.45564040577624</v>
       </c>
       <c r="H20" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I20" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J20" t="n">
-        <v>86.50633016252155</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K20" t="n">
-        <v>86.50633016252155</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L20" t="n">
-        <v>135.1152860209544</v>
+        <v>55.22196873020037</v>
       </c>
       <c r="M20" t="n">
-        <v>216.9513203090774</v>
+        <v>137.0580030183234</v>
       </c>
       <c r="N20" t="n">
-        <v>294.4140979734619</v>
+        <v>214.5207806827079</v>
       </c>
       <c r="O20" t="n">
-        <v>330.6506435883758</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="P20" t="n">
-        <v>330.6506435883758</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="Q20" t="n">
-        <v>330.6506435883758</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="R20" t="n">
-        <v>330.6506435883758</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="S20" t="n">
-        <v>330.6506435883758</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="T20" t="n">
-        <v>330.6506435883758</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="U20" t="n">
-        <v>330.6506435883758</v>
+        <v>315.519837078405</v>
       </c>
       <c r="V20" t="n">
-        <v>330.6506435883758</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="W20" t="n">
-        <v>328.9001008840826</v>
+        <v>328.9001008840827</v>
       </c>
       <c r="X20" t="n">
-        <v>305.0422344737902</v>
+        <v>305.0422344737903</v>
       </c>
       <c r="Y20" t="n">
-        <v>258.4542133930495</v>
+        <v>258.4542133930496</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>80.15773177900019</v>
+        <v>157.5502826012745</v>
       </c>
       <c r="C21" t="n">
-        <v>80.15773177900019</v>
+        <v>157.5502826012745</v>
       </c>
       <c r="D21" t="n">
-        <v>80.15773177900019</v>
+        <v>157.5502826012745</v>
       </c>
       <c r="E21" t="n">
-        <v>6.613012871767516</v>
+        <v>74.05264533148258</v>
       </c>
       <c r="F21" t="n">
-        <v>6.613012871767516</v>
+        <v>74.05264533148258</v>
       </c>
       <c r="G21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="H21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K21" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L21" t="n">
-        <v>6.613012871767516</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="M21" t="n">
-        <v>88.44904715989054</v>
+        <v>166.9785750121299</v>
       </c>
       <c r="N21" t="n">
-        <v>166.9785750121298</v>
+        <v>166.9785750121299</v>
       </c>
       <c r="O21" t="n">
-        <v>248.8146093002528</v>
+        <v>248.8146093002529</v>
       </c>
       <c r="P21" t="n">
-        <v>330.6506435883758</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="Q21" t="n">
-        <v>330.6506435883758</v>
+        <v>324.5455571408583</v>
       </c>
       <c r="R21" t="n">
-        <v>330.6506435883758</v>
+        <v>324.5455571408583</v>
       </c>
       <c r="S21" t="n">
-        <v>330.6506435883758</v>
+        <v>324.5455571408583</v>
       </c>
       <c r="T21" t="n">
-        <v>330.6506435883758</v>
+        <v>241.0479198710664</v>
       </c>
       <c r="U21" t="n">
-        <v>330.6506435883758</v>
+        <v>241.0479198710664</v>
       </c>
       <c r="V21" t="n">
-        <v>247.1530063185839</v>
+        <v>241.0479198710664</v>
       </c>
       <c r="W21" t="n">
-        <v>247.1530063185839</v>
+        <v>157.5502826012745</v>
       </c>
       <c r="X21" t="n">
-        <v>247.1530063185839</v>
+        <v>157.5502826012745</v>
       </c>
       <c r="Y21" t="n">
-        <v>163.6553690487921</v>
+        <v>157.5502826012745</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="C22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="D22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="E22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="F22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="G22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="H22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="M22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="N22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="O22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="P22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="R22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="S22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="T22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="U22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="V22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="W22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="X22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>220.1473307371739</v>
+        <v>220.147330737174</v>
       </c>
       <c r="C23" t="n">
         <v>205.9634208051918</v>
       </c>
       <c r="D23" t="n">
-        <v>204.338437882252</v>
+        <v>204.3384378822518</v>
       </c>
       <c r="E23" t="n">
         <v>168.6662302932421</v>
@@ -5978,7 +5978,7 @@
         <v>100.9532776755684</v>
       </c>
       <c r="G23" t="n">
-        <v>17.45564040577624</v>
+        <v>17.4556404057763</v>
       </c>
       <c r="H23" t="n">
         <v>6.613012871767519</v>
@@ -5993,7 +5993,7 @@
         <v>6.613012871767519</v>
       </c>
       <c r="L23" t="n">
-        <v>55.22196873020036</v>
+        <v>55.22196873020037</v>
       </c>
       <c r="M23" t="n">
         <v>137.0580030183234</v>
@@ -6017,22 +6017,22 @@
         <v>250.7573262976218</v>
       </c>
       <c r="T23" t="n">
-        <v>250.7573262976218</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="U23" t="n">
-        <v>315.519837078405</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="V23" t="n">
         <v>330.6506435883759</v>
       </c>
       <c r="W23" t="n">
-        <v>328.9001008840826</v>
+        <v>328.9001008840828</v>
       </c>
       <c r="X23" t="n">
-        <v>305.0422344737901</v>
+        <v>305.0422344737904</v>
       </c>
       <c r="Y23" t="n">
-        <v>258.4542133930494</v>
+        <v>258.4542133930495</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>247.153006318584</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="C24" t="n">
-        <v>163.6553690487921</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="D24" t="n">
-        <v>80.15773177900022</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="E24" t="n">
-        <v>80.15773177900022</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="F24" t="n">
-        <v>80.15773177900022</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="G24" t="n">
         <v>6.613012871767519</v>
@@ -6072,46 +6072,46 @@
         <v>6.613012871767519</v>
       </c>
       <c r="L24" t="n">
+        <v>6.613012871767519</v>
+      </c>
+      <c r="M24" t="n">
         <v>88.44904715989057</v>
-      </c>
-      <c r="M24" t="n">
-        <v>170.2850814480136</v>
       </c>
       <c r="N24" t="n">
         <v>170.2850814480136</v>
       </c>
       <c r="O24" t="n">
-        <v>252.1211157361367</v>
+        <v>248.8146093002529</v>
       </c>
       <c r="P24" t="n">
         <v>330.6506435883759</v>
       </c>
       <c r="Q24" t="n">
-        <v>330.6506435883759</v>
+        <v>324.5455571408583</v>
       </c>
       <c r="R24" t="n">
-        <v>330.6506435883759</v>
+        <v>241.0479198710664</v>
       </c>
       <c r="S24" t="n">
-        <v>330.6506435883759</v>
+        <v>157.5502826012745</v>
       </c>
       <c r="T24" t="n">
-        <v>330.6506435883759</v>
+        <v>90.11065014155943</v>
       </c>
       <c r="U24" t="n">
-        <v>330.6506435883759</v>
+        <v>90.11065014155943</v>
       </c>
       <c r="V24" t="n">
-        <v>247.153006318584</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="W24" t="n">
-        <v>247.153006318584</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="X24" t="n">
-        <v>247.153006318584</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Y24" t="n">
-        <v>247.153006318584</v>
+        <v>6.613012871767519</v>
       </c>
     </row>
     <row r="25">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1024.989143861832</v>
+        <v>1024.989143861833</v>
       </c>
       <c r="C26" t="n">
-        <v>886.2416502123533</v>
+        <v>886.241650212354</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0530835719161</v>
+        <v>760.0530835719168</v>
       </c>
       <c r="E26" t="n">
-        <v>599.8172922654094</v>
+        <v>599.8172922654101</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5407559302387</v>
+        <v>407.5407559302394</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4795349429505</v>
+        <v>199.4795349429504</v>
       </c>
       <c r="H26" t="n">
-        <v>64.07332369144463</v>
+        <v>64.0733236914446</v>
       </c>
       <c r="I26" t="n">
         <v>36.09517858874311</v>
       </c>
       <c r="J26" t="n">
-        <v>171.8138854154935</v>
+        <v>171.8138854154936</v>
       </c>
       <c r="K26" t="n">
-        <v>377.39293892921</v>
+        <v>377.3929389292101</v>
       </c>
       <c r="L26" t="n">
-        <v>636.718918669156</v>
+        <v>636.7189186691555</v>
       </c>
       <c r="M26" t="n">
-        <v>930.3987315707766</v>
+        <v>930.3987315707762</v>
       </c>
       <c r="N26" t="n">
-        <v>1218.578533116674</v>
+        <v>1218.578533116673</v>
       </c>
       <c r="O26" t="n">
         <v>1465.5321026131</v>
@@ -6248,7 +6248,7 @@
         <v>1786.223060293145</v>
       </c>
       <c r="R26" t="n">
-        <v>1804.758929437155</v>
+        <v>1804.758929437156</v>
       </c>
       <c r="S26" t="n">
         <v>1790.217396941448</v>
@@ -6269,7 +6269,7 @@
         <v>1359.011215033443</v>
       </c>
       <c r="Y26" t="n">
-        <v>1187.859610235205</v>
+        <v>1187.859610235206</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>277.7247014354455</v>
+        <v>196.522894871499</v>
       </c>
       <c r="C27" t="n">
-        <v>88.31242716840919</v>
+        <v>196.522894871499</v>
       </c>
       <c r="D27" t="n">
-        <v>88.31242716840919</v>
+        <v>196.522894871499</v>
       </c>
       <c r="E27" t="n">
-        <v>88.31242716840919</v>
+        <v>196.522894871499</v>
       </c>
       <c r="F27" t="n">
-        <v>88.31242716840919</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="G27" t="n">
-        <v>88.31242716840919</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="H27" t="n">
-        <v>88.31242716840919</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="I27" t="n">
         <v>36.09517858874311</v>
@@ -6339,16 +6339,16 @@
         <v>768.9012301819023</v>
       </c>
       <c r="V27" t="n">
-        <v>740.8169450837127</v>
+        <v>696.0747185910074</v>
       </c>
       <c r="W27" t="n">
-        <v>686.4138088121803</v>
+        <v>641.671582319475</v>
       </c>
       <c r="X27" t="n">
-        <v>681.9012474270529</v>
+        <v>422.1635879361714</v>
       </c>
       <c r="Y27" t="n">
-        <v>456.2605543623806</v>
+        <v>196.522894871499</v>
       </c>
     </row>
     <row r="28">
@@ -6358,73 +6358,73 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>70.97145101193723</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="C28" t="n">
-        <v>70.97145101193723</v>
+        <v>82.01959330800305</v>
       </c>
       <c r="D28" t="n">
-        <v>70.97145101193723</v>
+        <v>149.005793441312</v>
       </c>
       <c r="E28" t="n">
-        <v>70.97145101193723</v>
+        <v>219.4634375227218</v>
       </c>
       <c r="F28" t="n">
-        <v>70.97145101193723</v>
+        <v>223.0679876565324</v>
       </c>
       <c r="G28" t="n">
-        <v>70.97145101193723</v>
+        <v>223.0679876565324</v>
       </c>
       <c r="H28" t="n">
-        <v>70.97145101193723</v>
+        <v>223.0679876565324</v>
       </c>
       <c r="I28" t="n">
-        <v>70.97145101193723</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="J28" t="n">
-        <v>163.0307057202538</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="K28" t="n">
-        <v>163.0307057202538</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="L28" t="n">
-        <v>163.0307057202538</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="M28" t="n">
-        <v>163.0307057202538</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="N28" t="n">
-        <v>185.520356102769</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="O28" t="n">
-        <v>185.520356102769</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="P28" t="n">
-        <v>185.520356102769</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.7419715358039</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="R28" t="n">
-        <v>270.7419715358039</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="S28" t="n">
-        <v>248.016628209808</v>
+        <v>248.0166282098078</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0136820482061</v>
+        <v>237.013682048206</v>
       </c>
       <c r="U28" t="n">
-        <v>160.4371339659332</v>
+        <v>160.4371339659331</v>
       </c>
       <c r="V28" t="n">
-        <v>127.8477031414328</v>
+        <v>127.8477031414327</v>
       </c>
       <c r="W28" t="n">
-        <v>49.59999766553297</v>
+        <v>49.59999766553292</v>
       </c>
       <c r="X28" t="n">
-        <v>40.43436459477738</v>
+        <v>40.43436459477735</v>
       </c>
       <c r="Y28" t="n">
         <v>36.09517858874311</v>
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1024.989143861833</v>
+        <v>1024.989143861832</v>
       </c>
       <c r="C29" t="n">
-        <v>886.2416502123535</v>
+        <v>886.2416502123531</v>
       </c>
       <c r="D29" t="n">
-        <v>760.0530835719164</v>
+        <v>760.053083571916</v>
       </c>
       <c r="E29" t="n">
-        <v>599.8172922654098</v>
+        <v>599.8172922654093</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5407559302391</v>
+        <v>407.5407559302386</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4795349429503</v>
+        <v>199.4795349429496</v>
       </c>
       <c r="H29" t="n">
-        <v>64.07332369144454</v>
+        <v>64.0733236914446</v>
       </c>
       <c r="I29" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="J29" t="n">
         <v>171.8138854154936</v>
       </c>
       <c r="K29" t="n">
-        <v>377.3929389292102</v>
+        <v>377.3929389292101</v>
       </c>
       <c r="L29" t="n">
-        <v>636.7189186691552</v>
+        <v>636.7189186691555</v>
       </c>
       <c r="M29" t="n">
-        <v>930.3987315707759</v>
+        <v>930.3987315707762</v>
       </c>
       <c r="N29" t="n">
         <v>1218.578533116673</v>
@@ -6479,13 +6479,13 @@
         <v>1465.5321026131</v>
       </c>
       <c r="P29" t="n">
-        <v>1663.028607199424</v>
+        <v>1663.028607199425</v>
       </c>
       <c r="Q29" t="n">
         <v>1786.223060293145</v>
       </c>
       <c r="R29" t="n">
-        <v>1804.758929437155</v>
+        <v>1804.758929437156</v>
       </c>
       <c r="S29" t="n">
         <v>1790.217396941448</v>
@@ -6497,7 +6497,7 @@
         <v>1742.872352129444</v>
       </c>
       <c r="V29" t="n">
-        <v>1633.746791583023</v>
+        <v>1633.746791583022</v>
       </c>
       <c r="W29" t="n">
         <v>1507.432665161232</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>462.3656408098985</v>
+        <v>357.3030111104673</v>
       </c>
       <c r="C30" t="n">
-        <v>462.3656408098985</v>
+        <v>357.3030111104673</v>
       </c>
       <c r="D30" t="n">
-        <v>323.4653933882543</v>
+        <v>196.522894871499</v>
       </c>
       <c r="E30" t="n">
-        <v>323.4653933882543</v>
+        <v>196.522894871499</v>
       </c>
       <c r="F30" t="n">
-        <v>163.0376771054983</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="G30" t="n">
-        <v>163.0376771054983</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="H30" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="I30" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="J30" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="K30" t="n">
         <v>75.09223206028355</v>
@@ -6561,31 +6561,31 @@
         <v>801.7553535343914</v>
       </c>
       <c r="Q30" t="n">
-        <v>801.7553535343914</v>
+        <v>795.6502670868737</v>
       </c>
       <c r="R30" t="n">
-        <v>801.7553535343914</v>
+        <v>795.6502670868737</v>
       </c>
       <c r="S30" t="n">
-        <v>801.7553535343914</v>
+        <v>795.6502670868737</v>
       </c>
       <c r="T30" t="n">
-        <v>799.6347665413329</v>
+        <v>793.529680093815</v>
       </c>
       <c r="U30" t="n">
-        <v>775.0063166294201</v>
+        <v>768.9012301819023</v>
       </c>
       <c r="V30" t="n">
-        <v>531.9265985330542</v>
+        <v>740.8169450837127</v>
       </c>
       <c r="W30" t="n">
-        <v>477.5234622615218</v>
+        <v>686.4138088121803</v>
       </c>
       <c r="X30" t="n">
-        <v>473.0109008763945</v>
+        <v>681.9012474270529</v>
       </c>
       <c r="Y30" t="n">
-        <v>462.3656408098985</v>
+        <v>535.8388640374023</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="C31" t="n">
-        <v>36.09517858874311</v>
+        <v>82.01959330800307</v>
       </c>
       <c r="D31" t="n">
-        <v>36.09517858874311</v>
+        <v>149.0057934413121</v>
       </c>
       <c r="E31" t="n">
-        <v>36.09517858874311</v>
+        <v>197.5625610505533</v>
       </c>
       <c r="F31" t="n">
-        <v>36.09517858874311</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="G31" t="n">
-        <v>36.09517858874311</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="H31" t="n">
-        <v>36.09517858874311</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="I31" t="n">
-        <v>83.76916246801446</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="J31" t="n">
-        <v>83.76916246801446</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="K31" t="n">
-        <v>83.76916246801446</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="L31" t="n">
-        <v>83.76916246801446</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="M31" t="n">
-        <v>261.1792922659537</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="N31" t="n">
-        <v>261.1792922659537</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="O31" t="n">
-        <v>261.1792922659537</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="P31" t="n">
-        <v>261.1792922659537</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="Q31" t="n">
-        <v>261.1792922659537</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="R31" t="n">
-        <v>270.7419715358033</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="S31" t="n">
-        <v>248.0166282098074</v>
+        <v>248.0166282098078</v>
       </c>
       <c r="T31" t="n">
-        <v>237.0136820482057</v>
+        <v>237.013682048206</v>
       </c>
       <c r="U31" t="n">
-        <v>160.4371339659329</v>
+        <v>160.4371339659331</v>
       </c>
       <c r="V31" t="n">
-        <v>127.8477031414326</v>
+        <v>127.8477031414327</v>
       </c>
       <c r="W31" t="n">
-        <v>49.5999976655328</v>
+        <v>49.59999766553293</v>
       </c>
       <c r="X31" t="n">
-        <v>40.43436459477729</v>
+        <v>40.43436459477736</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6677,16 @@
         <v>1024.989143861833</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2416502123538</v>
+        <v>886.2416502123539</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0530835719167</v>
+        <v>760.0530835719168</v>
       </c>
       <c r="E32" t="n">
         <v>599.8172922654101</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5407559302394</v>
+        <v>407.5407559302395</v>
       </c>
       <c r="G32" t="n">
         <v>199.4795349429506</v>
@@ -6695,19 +6695,19 @@
         <v>64.07332369144478</v>
       </c>
       <c r="I32" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8138854154934</v>
+        <v>171.8138854154936</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3929389292099</v>
+        <v>377.3929389292101</v>
       </c>
       <c r="L32" t="n">
         <v>636.7189186691555</v>
       </c>
       <c r="M32" t="n">
-        <v>930.3987315707761</v>
+        <v>930.3987315707762</v>
       </c>
       <c r="N32" t="n">
         <v>1218.578533116673</v>
@@ -6722,7 +6722,7 @@
         <v>1786.223060293145</v>
       </c>
       <c r="R32" t="n">
-        <v>1804.758929437155</v>
+        <v>1804.758929437156</v>
       </c>
       <c r="S32" t="n">
         <v>1790.217396941448</v>
@@ -6740,7 +6740,7 @@
         <v>1507.432665161233</v>
       </c>
       <c r="X32" t="n">
-        <v>1359.011215033443</v>
+        <v>1359.011215033444</v>
       </c>
       <c r="Y32" t="n">
         <v>1187.859610235205</v>
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>283.8297878829634</v>
+        <v>346.7634384603273</v>
       </c>
       <c r="C33" t="n">
-        <v>283.8297878829634</v>
+        <v>346.7634384603273</v>
       </c>
       <c r="D33" t="n">
-        <v>123.0496716439952</v>
+        <v>346.7634384603273</v>
       </c>
       <c r="E33" t="n">
-        <v>36.09517858874311</v>
+        <v>346.7634384603273</v>
       </c>
       <c r="F33" t="n">
-        <v>36.09517858874311</v>
+        <v>186.3357221775713</v>
       </c>
       <c r="G33" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="H33" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="I33" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="J33" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="K33" t="n">
         <v>75.09223206028355</v>
@@ -6798,31 +6798,31 @@
         <v>801.7553535343914</v>
       </c>
       <c r="Q33" t="n">
-        <v>801.7553535343914</v>
+        <v>795.6502670868737</v>
       </c>
       <c r="R33" t="n">
-        <v>801.7553535343914</v>
+        <v>795.6502670868737</v>
       </c>
       <c r="S33" t="n">
-        <v>801.7553535343914</v>
+        <v>795.6502670868737</v>
       </c>
       <c r="T33" t="n">
-        <v>799.6347665413329</v>
+        <v>684.0325641917617</v>
       </c>
       <c r="U33" t="n">
-        <v>775.0063166294201</v>
+        <v>659.404114279849</v>
       </c>
       <c r="V33" t="n">
-        <v>531.9265985330542</v>
+        <v>631.3198291816593</v>
       </c>
       <c r="W33" t="n">
-        <v>477.5234622615218</v>
+        <v>361.9212599119506</v>
       </c>
       <c r="X33" t="n">
-        <v>473.0109008763945</v>
+        <v>357.4086985268233</v>
       </c>
       <c r="Y33" t="n">
-        <v>462.3656408098985</v>
+        <v>346.7634384603273</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1570.112136490095</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="C34" t="n">
-        <v>1570.112136490095</v>
+        <v>82.0195933080031</v>
       </c>
       <c r="D34" t="n">
-        <v>1570.112136490095</v>
+        <v>82.0195933080031</v>
       </c>
       <c r="E34" t="n">
-        <v>1570.112136490095</v>
+        <v>103.2899900330121</v>
       </c>
       <c r="F34" t="n">
-        <v>1643.291546975345</v>
+        <v>176.4694005182625</v>
       </c>
       <c r="G34" t="n">
-        <v>1687.000170614393</v>
+        <v>176.4694005182625</v>
       </c>
       <c r="H34" t="n">
-        <v>1687.000170614393</v>
+        <v>223.0679876565322</v>
       </c>
       <c r="I34" t="n">
-        <v>1734.674154493664</v>
+        <v>270.7419715358035</v>
       </c>
       <c r="J34" t="n">
-        <v>1795.196250167306</v>
+        <v>270.7419715358035</v>
       </c>
       <c r="K34" t="n">
-        <v>1795.196250167306</v>
+        <v>270.7419715358035</v>
       </c>
       <c r="L34" t="n">
-        <v>1795.196250167306</v>
+        <v>270.7419715358035</v>
       </c>
       <c r="M34" t="n">
-        <v>1795.196250167306</v>
+        <v>270.7419715358035</v>
       </c>
       <c r="N34" t="n">
-        <v>1795.196250167306</v>
+        <v>270.7419715358035</v>
       </c>
       <c r="O34" t="n">
-        <v>1795.196250167306</v>
+        <v>270.7419715358035</v>
       </c>
       <c r="P34" t="n">
-        <v>1795.196250167306</v>
+        <v>270.7419715358035</v>
       </c>
       <c r="Q34" t="n">
-        <v>1795.196250167306</v>
+        <v>270.7419715358035</v>
       </c>
       <c r="R34" t="n">
-        <v>1804.758929437155</v>
+        <v>270.7419715358035</v>
       </c>
       <c r="S34" t="n">
-        <v>1782.033586111159</v>
+        <v>248.0166282098076</v>
       </c>
       <c r="T34" t="n">
-        <v>1771.030639949558</v>
+        <v>237.0136820482059</v>
       </c>
       <c r="U34" t="n">
-        <v>1694.454091867285</v>
+        <v>160.437133965933</v>
       </c>
       <c r="V34" t="n">
-        <v>1661.864661042784</v>
+        <v>127.8477031414326</v>
       </c>
       <c r="W34" t="n">
-        <v>1583.616955566885</v>
+        <v>49.59999766553288</v>
       </c>
       <c r="X34" t="n">
-        <v>1574.451322496129</v>
+        <v>40.43436459477734</v>
       </c>
       <c r="Y34" t="n">
-        <v>1570.112136490095</v>
+        <v>36.09517858874312</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>856.9281533672747</v>
+        <v>856.9281533672756</v>
       </c>
       <c r="C35" t="n">
-        <v>741.2446565210513</v>
+        <v>741.244656521052</v>
       </c>
       <c r="D35" t="n">
-        <v>638.1200866838699</v>
+        <v>638.1200866838706</v>
       </c>
       <c r="E35" t="n">
-        <v>500.9482921806189</v>
+        <v>500.9482921806195</v>
       </c>
       <c r="F35" t="n">
-        <v>331.7357526487039</v>
+        <v>331.7357526487045</v>
       </c>
       <c r="G35" t="n">
-        <v>146.7385284646707</v>
+        <v>146.7385284646713</v>
       </c>
       <c r="H35" t="n">
-        <v>34.39631401642136</v>
+        <v>34.39631401642137</v>
       </c>
       <c r="I35" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="J35" t="n">
         <v>187.805895810597</v>
       </c>
       <c r="K35" t="n">
-        <v>415.9899725911844</v>
+        <v>333.6651596317893</v>
       </c>
       <c r="L35" t="n">
-        <v>536.3391396933407</v>
+        <v>615.5961626386056</v>
       </c>
       <c r="M35" t="n">
-        <v>852.6239758618324</v>
+        <v>698.5589516587138</v>
       </c>
       <c r="N35" t="n">
-        <v>1163.4088006746</v>
+        <v>776.0217293230983</v>
       </c>
       <c r="O35" t="n">
-        <v>1432.967393437898</v>
+        <v>1045.580322086396</v>
       </c>
       <c r="P35" t="n">
-        <v>1432.967393437898</v>
+        <v>1265.681849939591</v>
       </c>
       <c r="Q35" t="n">
-        <v>1432.967393437898</v>
+        <v>1411.481326300182</v>
       </c>
       <c r="R35" t="n">
-        <v>1474.108285848779</v>
+        <v>1452.622218711064</v>
       </c>
       <c r="S35" t="n">
-        <v>1474.108285848779</v>
+        <v>1460.975085978892</v>
       </c>
       <c r="T35" t="n">
-        <v>1474.108285848779</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="U35" t="n">
-        <v>1459.491377618608</v>
+        <v>1459.491377618609</v>
       </c>
       <c r="V35" t="n">
-        <v>1373.429813875442</v>
+        <v>1373.429813875443</v>
       </c>
       <c r="W35" t="n">
-        <v>1270.179684256907</v>
+        <v>1270.179684256908</v>
       </c>
       <c r="X35" t="n">
-        <v>1144.822230932374</v>
+        <v>1144.822230932375</v>
       </c>
       <c r="Y35" t="n">
-        <v>996.7346229373917</v>
+        <v>996.7346229373926</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>218.8944399840119</v>
+        <v>190.0932978508571</v>
       </c>
       <c r="C36" t="n">
-        <v>29.48216571697559</v>
+        <v>190.0932978508571</v>
       </c>
       <c r="D36" t="n">
-        <v>29.48216571697559</v>
+        <v>190.0932978508571</v>
       </c>
       <c r="E36" t="n">
-        <v>29.48216571697559</v>
+        <v>190.0932978508571</v>
       </c>
       <c r="F36" t="n">
-        <v>29.48216571697559</v>
+        <v>190.0932978508571</v>
       </c>
       <c r="G36" t="n">
-        <v>29.48216571697559</v>
+        <v>190.0932978508571</v>
       </c>
       <c r="H36" t="n">
-        <v>29.48216571697559</v>
+        <v>190.0932978508571</v>
       </c>
       <c r="I36" t="n">
-        <v>29.48216571697559</v>
+        <v>81.87029176727088</v>
       </c>
       <c r="J36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="K36" t="n">
-        <v>68.47921918851603</v>
+        <v>68.47921918851604</v>
       </c>
       <c r="L36" t="n">
         <v>187.2021124509166</v>
       </c>
       <c r="M36" t="n">
-        <v>370.5007933084864</v>
+        <v>370.5007933084865</v>
       </c>
       <c r="N36" t="n">
-        <v>577.0707343929884</v>
+        <v>577.0707343929885</v>
       </c>
       <c r="O36" t="n">
-        <v>710.2947914112457</v>
+        <v>710.2947914112458</v>
       </c>
       <c r="P36" t="n">
-        <v>795.1423406626238</v>
+        <v>795.1423406626241</v>
       </c>
       <c r="Q36" t="n">
-        <v>789.0372542151061</v>
+        <v>789.0372542151064</v>
       </c>
       <c r="R36" t="n">
-        <v>789.0372542151061</v>
+        <v>789.0372542151064</v>
       </c>
       <c r="S36" t="n">
-        <v>789.0372542151061</v>
+        <v>789.0372542151064</v>
       </c>
       <c r="T36" t="n">
-        <v>789.0372542151061</v>
+        <v>789.0372542151064</v>
       </c>
       <c r="U36" t="n">
-        <v>549.4133713050171</v>
+        <v>549.4133713050173</v>
       </c>
       <c r="V36" t="n">
-        <v>469.7415738355922</v>
+        <v>306.3336532086514</v>
       </c>
       <c r="W36" t="n">
-        <v>438.4024343673155</v>
+        <v>190.0932978508571</v>
       </c>
       <c r="X36" t="n">
-        <v>218.8944399840119</v>
+        <v>190.0932978508571</v>
       </c>
       <c r="Y36" t="n">
-        <v>218.8944399840119</v>
+        <v>190.0932978508571</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="C37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="D37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="E37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="F37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="G37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="H37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="I37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="J37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="K37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="L37" t="n">
         <v>147.7038596898815</v>
@@ -7132,13 +7132,13 @@
         <v>84.66587438961969</v>
       </c>
       <c r="W37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="X37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>856.9281533672751</v>
+        <v>856.9281533672762</v>
       </c>
       <c r="C38" t="n">
-        <v>741.2446565210516</v>
+        <v>741.244656521053</v>
       </c>
       <c r="D38" t="n">
-        <v>638.1200866838701</v>
+        <v>638.1200866838715</v>
       </c>
       <c r="E38" t="n">
-        <v>500.9482921806189</v>
+        <v>500.9482921806202</v>
       </c>
       <c r="F38" t="n">
-        <v>331.7357526487039</v>
+        <v>331.7357526487053</v>
       </c>
       <c r="G38" t="n">
-        <v>146.7385284646707</v>
+        <v>146.7385284646722</v>
       </c>
       <c r="H38" t="n">
-        <v>34.39631401642136</v>
+        <v>34.39631401642131</v>
       </c>
       <c r="I38" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="J38" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="K38" t="n">
-        <v>108.6959797512332</v>
+        <v>128.2634855990987</v>
       </c>
       <c r="L38" t="n">
-        <v>390.6269827580496</v>
+        <v>410.1944886059151</v>
       </c>
       <c r="M38" t="n">
-        <v>706.9118189265412</v>
+        <v>726.4793247744068</v>
       </c>
       <c r="N38" t="n">
-        <v>1017.696643739309</v>
+        <v>1037.264149587175</v>
       </c>
       <c r="O38" t="n">
-        <v>1053.933189354223</v>
+        <v>1306.822742350472</v>
       </c>
       <c r="P38" t="n">
-        <v>1274.034717207418</v>
+        <v>1306.822742350472</v>
       </c>
       <c r="Q38" t="n">
-        <v>1419.83419356801</v>
+        <v>1452.622218711064</v>
       </c>
       <c r="R38" t="n">
-        <v>1460.975085978891</v>
+        <v>1452.622218711064</v>
       </c>
       <c r="S38" t="n">
-        <v>1460.975085978891</v>
+        <v>1460.975085978892</v>
       </c>
       <c r="T38" t="n">
-        <v>1474.108285848779</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="U38" t="n">
-        <v>1459.491377618608</v>
+        <v>1459.491377618609</v>
       </c>
       <c r="V38" t="n">
-        <v>1373.429813875442</v>
+        <v>1373.429813875443</v>
       </c>
       <c r="W38" t="n">
-        <v>1270.179684256908</v>
+        <v>1270.179684256909</v>
       </c>
       <c r="X38" t="n">
-        <v>1144.822230932374</v>
+        <v>1144.822230932375</v>
       </c>
       <c r="Y38" t="n">
-        <v>996.7346229373919</v>
+        <v>996.7346229373929</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>990.2343208653029</v>
+        <v>190.2622819559438</v>
       </c>
       <c r="C39" t="n">
-        <v>990.2343208653029</v>
+        <v>190.2622819559438</v>
       </c>
       <c r="D39" t="n">
-        <v>990.2343208653029</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="E39" t="n">
-        <v>816.6711169867174</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="F39" t="n">
-        <v>816.6711169867174</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="G39" t="n">
-        <v>816.6711169867174</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="H39" t="n">
-        <v>816.6711169867174</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="I39" t="n">
-        <v>708.4481109031311</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="J39" t="n">
-        <v>708.4481109031311</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="K39" t="n">
-        <v>747.4451643746715</v>
+        <v>68.47921918851604</v>
       </c>
       <c r="L39" t="n">
-        <v>866.1680576370721</v>
+        <v>187.2021124509166</v>
       </c>
       <c r="M39" t="n">
-        <v>1049.466738494642</v>
+        <v>370.5007933084865</v>
       </c>
       <c r="N39" t="n">
-        <v>1256.036679579144</v>
+        <v>577.0707343929885</v>
       </c>
       <c r="O39" t="n">
-        <v>1389.260736597401</v>
+        <v>710.2947914112458</v>
       </c>
       <c r="P39" t="n">
-        <v>1474.108285848779</v>
+        <v>795.1423406626241</v>
       </c>
       <c r="Q39" t="n">
-        <v>1474.108285848779</v>
+        <v>789.0372542151064</v>
       </c>
       <c r="R39" t="n">
-        <v>1338.433213502021</v>
+        <v>789.0372542151064</v>
       </c>
       <c r="S39" t="n">
-        <v>1338.433213502021</v>
+        <v>789.0372542151064</v>
       </c>
       <c r="T39" t="n">
-        <v>1121.317193510786</v>
+        <v>789.0372542151064</v>
       </c>
       <c r="U39" t="n">
-        <v>1119.752740402129</v>
+        <v>549.4133713050173</v>
       </c>
       <c r="V39" t="n">
-        <v>1114.732452107196</v>
+        <v>400.1372743511556</v>
       </c>
       <c r="W39" t="n">
-        <v>1083.393312638919</v>
+        <v>368.7981348828789</v>
       </c>
       <c r="X39" t="n">
-        <v>990.2343208653029</v>
+        <v>368.7981348828789</v>
       </c>
       <c r="Y39" t="n">
-        <v>990.2343208653029</v>
+        <v>368.7981348828789</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="C40" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="D40" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="E40" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="F40" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="G40" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="H40" t="n">
-        <v>29.48216571697559</v>
+        <v>98.68577612211625</v>
       </c>
       <c r="I40" t="n">
-        <v>29.48216571697559</v>
+        <v>98.68577612211625</v>
       </c>
       <c r="J40" t="n">
-        <v>29.48216571697559</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="K40" t="n">
-        <v>29.48216571697559</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="L40" t="n">
-        <v>29.48216571697559</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="M40" t="n">
-        <v>135.8828239559965</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="N40" t="n">
-        <v>135.8828239559965</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="O40" t="n">
-        <v>135.8828239559965</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="P40" t="n">
-        <v>135.8828239559965</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="Q40" t="n">
-        <v>135.8828239559965</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="R40" t="n">
-        <v>135.8828239559965</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="S40" t="n">
-        <v>135.8828239559965</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="T40" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="U40" t="n">
-        <v>94.19130841086437</v>
+        <v>94.19130841086425</v>
       </c>
       <c r="V40" t="n">
-        <v>84.66587438961969</v>
+        <v>84.66587438961963</v>
       </c>
       <c r="W40" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="X40" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
     </row>
     <row r="41">
@@ -7385,61 +7385,61 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>856.9281533672752</v>
+        <v>856.9281533672761</v>
       </c>
       <c r="C41" t="n">
-        <v>741.2446565210516</v>
+        <v>741.2446565210527</v>
       </c>
       <c r="D41" t="n">
-        <v>638.1200866838702</v>
+        <v>638.1200866838712</v>
       </c>
       <c r="E41" t="n">
-        <v>500.9482921806192</v>
+        <v>500.9482921806203</v>
       </c>
       <c r="F41" t="n">
-        <v>331.7357526487042</v>
+        <v>331.7357526487054</v>
       </c>
       <c r="G41" t="n">
-        <v>146.7385284646714</v>
+        <v>146.7385284646723</v>
       </c>
       <c r="H41" t="n">
-        <v>34.39631401642136</v>
+        <v>34.39631401642131</v>
       </c>
       <c r="I41" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="J41" t="n">
         <v>187.805895810597</v>
       </c>
       <c r="K41" t="n">
-        <v>415.9899725911844</v>
+        <v>415.9899725911845</v>
       </c>
       <c r="L41" t="n">
-        <v>610.7285106112448</v>
+        <v>615.5961626386054</v>
       </c>
       <c r="M41" t="n">
-        <v>693.6912996313529</v>
+        <v>698.5589516587136</v>
       </c>
       <c r="N41" t="n">
-        <v>1004.476124444121</v>
+        <v>776.021729323098</v>
       </c>
       <c r="O41" t="n">
-        <v>1274.034717207418</v>
+        <v>1045.580322086395</v>
       </c>
       <c r="P41" t="n">
-        <v>1274.034717207418</v>
+        <v>1265.681849939591</v>
       </c>
       <c r="Q41" t="n">
-        <v>1419.83419356801</v>
+        <v>1411.481326300182</v>
       </c>
       <c r="R41" t="n">
-        <v>1460.975085978891</v>
+        <v>1452.622218711064</v>
       </c>
       <c r="S41" t="n">
-        <v>1460.975085978891</v>
+        <v>1460.975085978892</v>
       </c>
       <c r="T41" t="n">
-        <v>1474.108285848779</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="U41" t="n">
         <v>1459.491377618609</v>
@@ -7448,13 +7448,13 @@
         <v>1373.429813875443</v>
       </c>
       <c r="W41" t="n">
-        <v>1270.179684256908</v>
+        <v>1270.179684256909</v>
       </c>
       <c r="X41" t="n">
-        <v>1144.822230932374</v>
+        <v>1144.822230932375</v>
       </c>
       <c r="Y41" t="n">
-        <v>996.7346229373921</v>
+        <v>996.7346229373928</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>537.7104654074525</v>
+        <v>557.7086438172022</v>
       </c>
       <c r="C42" t="n">
-        <v>537.7104654074525</v>
+        <v>557.7086438172022</v>
       </c>
       <c r="D42" t="n">
-        <v>537.7104654074525</v>
+        <v>396.9285275782339</v>
       </c>
       <c r="E42" t="n">
-        <v>364.1472615288669</v>
+        <v>223.3653236996484</v>
       </c>
       <c r="F42" t="n">
-        <v>208.8127902840261</v>
+        <v>223.3653236996484</v>
       </c>
       <c r="G42" t="n">
-        <v>208.8127902840261</v>
+        <v>156.4246642337308</v>
       </c>
       <c r="H42" t="n">
-        <v>81.87029176727088</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="I42" t="n">
-        <v>81.87029176727088</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="J42" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="K42" t="n">
-        <v>68.47921918851603</v>
+        <v>68.47921918851604</v>
       </c>
       <c r="L42" t="n">
         <v>187.2021124509166</v>
       </c>
       <c r="M42" t="n">
-        <v>370.5007933084864</v>
+        <v>370.5007933084865</v>
       </c>
       <c r="N42" t="n">
-        <v>577.0707343929884</v>
+        <v>577.0707343929885</v>
       </c>
       <c r="O42" t="n">
-        <v>710.2947914112457</v>
+        <v>710.2947914112458</v>
       </c>
       <c r="P42" t="n">
-        <v>795.1423406626238</v>
+        <v>795.1423406626241</v>
       </c>
       <c r="Q42" t="n">
-        <v>795.1423406626238</v>
+        <v>789.0372542151064</v>
       </c>
       <c r="R42" t="n">
-        <v>795.1423406626238</v>
+        <v>789.0372542151064</v>
       </c>
       <c r="S42" t="n">
-        <v>795.1423406626238</v>
+        <v>595.6325246890696</v>
       </c>
       <c r="T42" t="n">
-        <v>795.1423406626238</v>
+        <v>595.6325246890696</v>
       </c>
       <c r="U42" t="n">
-        <v>793.5778875539668</v>
+        <v>594.0680715804126</v>
       </c>
       <c r="V42" t="n">
-        <v>788.5575992590328</v>
+        <v>589.0477832854788</v>
       </c>
       <c r="W42" t="n">
-        <v>757.2184597907561</v>
+        <v>557.7086438172022</v>
       </c>
       <c r="X42" t="n">
-        <v>537.7104654074525</v>
+        <v>557.7086438172022</v>
       </c>
       <c r="Y42" t="n">
-        <v>537.7104654074525</v>
+        <v>557.7086438172022</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="C43" t="n">
-        <v>29.48216571697559</v>
+        <v>98.01160370310653</v>
       </c>
       <c r="D43" t="n">
-        <v>29.48216571697559</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="E43" t="n">
-        <v>29.48216571697559</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="F43" t="n">
-        <v>29.48216571697559</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="G43" t="n">
-        <v>29.48216571697559</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="H43" t="n">
-        <v>29.48216571697559</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="I43" t="n">
-        <v>29.48216571697559</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="J43" t="n">
-        <v>29.48216571697559</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="K43" t="n">
-        <v>29.48216571697559</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="L43" t="n">
-        <v>29.48216571697559</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="M43" t="n">
-        <v>29.48216571697559</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="N43" t="n">
-        <v>29.48216571697559</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="O43" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="P43" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="Q43" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="R43" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="S43" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="T43" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="U43" t="n">
-        <v>94.19130841086437</v>
+        <v>94.19130841086425</v>
       </c>
       <c r="V43" t="n">
-        <v>84.66587438961969</v>
+        <v>84.66587438961963</v>
       </c>
       <c r="W43" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="X43" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
     </row>
     <row r="44">
@@ -7622,61 +7622,61 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>856.9281533672751</v>
+        <v>856.9281533672755</v>
       </c>
       <c r="C44" t="n">
-        <v>741.2446565210519</v>
+        <v>741.2446565210523</v>
       </c>
       <c r="D44" t="n">
-        <v>638.1200866838703</v>
+        <v>638.1200866838708</v>
       </c>
       <c r="E44" t="n">
-        <v>500.9482921806191</v>
+        <v>500.9482921806195</v>
       </c>
       <c r="F44" t="n">
-        <v>331.7357526487041</v>
+        <v>331.7357526487046</v>
       </c>
       <c r="G44" t="n">
-        <v>146.7385284646709</v>
+        <v>146.7385284646714</v>
       </c>
       <c r="H44" t="n">
-        <v>34.39631401642136</v>
+        <v>34.39631401642137</v>
       </c>
       <c r="I44" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="J44" t="n">
         <v>187.805895810597</v>
       </c>
       <c r="K44" t="n">
-        <v>241.2749368166365</v>
+        <v>415.9899725911844</v>
       </c>
       <c r="L44" t="n">
-        <v>523.2059398234528</v>
+        <v>665.0899223173151</v>
       </c>
       <c r="M44" t="n">
-        <v>839.4907759919445</v>
+        <v>981.3747584858068</v>
       </c>
       <c r="N44" t="n">
-        <v>1150.275600804712</v>
+        <v>1058.837536150191</v>
       </c>
       <c r="O44" t="n">
-        <v>1419.83419356801</v>
+        <v>1095.074081765105</v>
       </c>
       <c r="P44" t="n">
-        <v>1419.83419356801</v>
+        <v>1315.1756096183</v>
       </c>
       <c r="Q44" t="n">
-        <v>1419.83419356801</v>
+        <v>1460.975085978892</v>
       </c>
       <c r="R44" t="n">
-        <v>1460.975085978891</v>
+        <v>1460.975085978892</v>
       </c>
       <c r="S44" t="n">
-        <v>1460.975085978891</v>
+        <v>1460.975085978892</v>
       </c>
       <c r="T44" t="n">
-        <v>1474.108285848779</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="U44" t="n">
         <v>1459.491377618609</v>
@@ -7691,7 +7691,7 @@
         <v>1144.822230932374</v>
       </c>
       <c r="Y44" t="n">
-        <v>996.7346229373919</v>
+        <v>996.7346229373924</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>139.3194413936166</v>
+        <v>501.1139576786536</v>
       </c>
       <c r="C45" t="n">
-        <v>139.3194413936166</v>
+        <v>501.1139576786536</v>
       </c>
       <c r="D45" t="n">
-        <v>139.3194413936166</v>
+        <v>340.3338414396853</v>
       </c>
       <c r="E45" t="n">
-        <v>139.3194413936166</v>
+        <v>340.3338414396853</v>
       </c>
       <c r="F45" t="n">
-        <v>139.3194413936166</v>
+        <v>340.3338414396853</v>
       </c>
       <c r="G45" t="n">
-        <v>29.48216571697559</v>
+        <v>190.0932978508571</v>
       </c>
       <c r="H45" t="n">
-        <v>29.48216571697559</v>
+        <v>190.0932978508571</v>
       </c>
       <c r="I45" t="n">
-        <v>29.48216571697559</v>
+        <v>81.87029176727088</v>
       </c>
       <c r="J45" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="K45" t="n">
-        <v>68.47921918851603</v>
+        <v>68.47921918851604</v>
       </c>
       <c r="L45" t="n">
         <v>187.2021124509166</v>
       </c>
       <c r="M45" t="n">
-        <v>370.5007933084864</v>
+        <v>370.5007933084865</v>
       </c>
       <c r="N45" t="n">
-        <v>577.0707343929884</v>
+        <v>577.0707343929885</v>
       </c>
       <c r="O45" t="n">
-        <v>710.2947914112457</v>
+        <v>710.2947914112458</v>
       </c>
       <c r="P45" t="n">
-        <v>795.1423406626238</v>
+        <v>795.1423406626241</v>
       </c>
       <c r="Q45" t="n">
-        <v>789.0372542151061</v>
+        <v>789.0372542151064</v>
       </c>
       <c r="R45" t="n">
-        <v>653.3621818683482</v>
+        <v>789.0372542151064</v>
       </c>
       <c r="S45" t="n">
-        <v>653.3621818683482</v>
+        <v>789.0372542151064</v>
       </c>
       <c r="T45" t="n">
-        <v>653.3621818683482</v>
+        <v>789.0372542151064</v>
       </c>
       <c r="U45" t="n">
-        <v>413.7382989582592</v>
+        <v>716.0092383687994</v>
       </c>
       <c r="V45" t="n">
-        <v>408.7180106633253</v>
+        <v>710.9889500738655</v>
       </c>
       <c r="W45" t="n">
-        <v>139.3194413936166</v>
+        <v>679.6498106055888</v>
       </c>
       <c r="X45" t="n">
-        <v>139.3194413936166</v>
+        <v>679.6498106055888</v>
       </c>
       <c r="Y45" t="n">
-        <v>139.3194413936166</v>
+        <v>679.6498106055888</v>
       </c>
     </row>
     <row r="46">
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="C46" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="D46" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="E46" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="F46" t="n">
-        <v>29.48216571697559</v>
+        <v>125.2665994690969</v>
       </c>
       <c r="G46" t="n">
-        <v>29.48216571697559</v>
+        <v>125.2665994690969</v>
       </c>
       <c r="H46" t="n">
-        <v>29.48216571697559</v>
+        <v>125.2665994690969</v>
       </c>
       <c r="I46" t="n">
-        <v>29.48216571697559</v>
+        <v>125.2665994690969</v>
       </c>
       <c r="J46" t="n">
-        <v>29.48216571697559</v>
+        <v>125.2665994690969</v>
       </c>
       <c r="K46" t="n">
-        <v>29.48216571697559</v>
+        <v>125.2665994690969</v>
       </c>
       <c r="L46" t="n">
-        <v>29.48216571697559</v>
+        <v>125.2665994690969</v>
       </c>
       <c r="M46" t="n">
-        <v>29.48216571697559</v>
+        <v>125.2665994690969</v>
       </c>
       <c r="N46" t="n">
-        <v>147.7038596898815</v>
+        <v>125.2665994690969</v>
       </c>
       <c r="O46" t="n">
-        <v>147.7038596898815</v>
+        <v>125.2665994690969</v>
       </c>
       <c r="P46" t="n">
-        <v>147.7038596898815</v>
+        <v>125.2665994690969</v>
       </c>
       <c r="Q46" t="n">
         <v>147.7038596898815</v>
@@ -7843,13 +7843,13 @@
         <v>84.66587438961969</v>
       </c>
       <c r="W46" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="X46" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
     </row>
   </sheetData>
@@ -8769,22 +8769,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>131.9825104815849</v>
       </c>
       <c r="L12" t="n">
-        <v>203.0450902472703</v>
+        <v>199.7051847564786</v>
       </c>
       <c r="M12" t="n">
-        <v>156.5584909293222</v>
+        <v>199.2893595226799</v>
       </c>
       <c r="N12" t="n">
-        <v>101.9573524286611</v>
+        <v>184.6200133257551</v>
       </c>
       <c r="O12" t="n">
         <v>203.3156892245184</v>
       </c>
       <c r="P12" t="n">
-        <v>203.3219397723609</v>
+        <v>120.6592788752669</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9012,10 +9012,10 @@
         <v>199.7051847564786</v>
       </c>
       <c r="M15" t="n">
-        <v>116.626698625586</v>
+        <v>199.2893595226799</v>
       </c>
       <c r="N15" t="n">
-        <v>184.6200133257551</v>
+        <v>101.9573524286611</v>
       </c>
       <c r="O15" t="n">
         <v>203.3156892245184</v>
@@ -9249,16 +9249,16 @@
         <v>203.0450902472703</v>
       </c>
       <c r="M18" t="n">
-        <v>195.9494540318883</v>
+        <v>116.626698625586</v>
       </c>
       <c r="N18" t="n">
-        <v>184.6200133257551</v>
+        <v>181.2801078349634</v>
       </c>
       <c r="O18" t="n">
         <v>203.3156892245184</v>
       </c>
       <c r="P18" t="n">
-        <v>120.6592788752669</v>
+        <v>203.3219397723609</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9483,13 +9483,13 @@
         <v>131.9825104815849</v>
       </c>
       <c r="L21" t="n">
-        <v>120.3824293501764</v>
+        <v>203.0450902472703</v>
       </c>
       <c r="M21" t="n">
-        <v>199.2893595226799</v>
+        <v>195.9494540318883</v>
       </c>
       <c r="N21" t="n">
-        <v>181.2801078349634</v>
+        <v>101.9573524286611</v>
       </c>
       <c r="O21" t="n">
         <v>203.3156892245184</v>
@@ -9720,19 +9720,19 @@
         <v>131.9825104815849</v>
       </c>
       <c r="L24" t="n">
-        <v>203.0450902472703</v>
+        <v>120.3824293501763</v>
       </c>
       <c r="M24" t="n">
-        <v>199.28935952268</v>
+        <v>199.2893595226799</v>
       </c>
       <c r="N24" t="n">
-        <v>101.9573524286611</v>
+        <v>184.6200133257551</v>
       </c>
       <c r="O24" t="n">
-        <v>203.3156892245184</v>
+        <v>199.9757837337268</v>
       </c>
       <c r="P24" t="n">
-        <v>199.9820342815693</v>
+        <v>203.3219397723609</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>169.4344561747823</v>
+        <v>169.4344561747822</v>
       </c>
       <c r="C11" t="n">
-        <v>145.5527131781278</v>
+        <v>145.5527131781277</v>
       </c>
       <c r="D11" t="n">
         <v>133.1193754391762</v>
       </c>
       <c r="E11" t="n">
-        <v>84.16346696149114</v>
+        <v>84.16346696149105</v>
       </c>
       <c r="F11" t="n">
         <v>198.5464654369624</v>
       </c>
       <c r="G11" t="n">
-        <v>131.5106423454655</v>
+        <v>131.5106423454654</v>
       </c>
       <c r="H11" t="n">
-        <v>142.2448436041342</v>
+        <v>59.58218270704018</v>
       </c>
       <c r="I11" t="n">
-        <v>35.89105811681792</v>
+        <v>35.89105811681787</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>17.7601928459344</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>45.49679044823566</v>
+        <v>13.03652321190361</v>
       </c>
       <c r="V11" t="n">
-        <v>116.226999406101</v>
+        <v>116.2269994061009</v>
       </c>
       <c r="W11" t="n">
         <v>133.2436796227158</v>
       </c>
       <c r="X11" t="n">
-        <v>104.9094700093887</v>
+        <v>155.129930091655</v>
       </c>
       <c r="Y11" t="n">
-        <v>94.97012231830487</v>
+        <v>177.6327832153988</v>
       </c>
     </row>
     <row r="12">
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.340816169499618</v>
+        <v>1.340816169499535</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.995261989190311</v>
+        <v>2.995261989190226</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>169.4344561747824</v>
+        <v>169.4344561747822</v>
       </c>
       <c r="C14" t="n">
-        <v>111.817633609756</v>
+        <v>145.5527131781277</v>
       </c>
       <c r="D14" t="n">
-        <v>50.45671454208235</v>
+        <v>133.1193754391762</v>
       </c>
       <c r="E14" t="n">
-        <v>166.8261278585852</v>
+        <v>166.826127858585</v>
       </c>
       <c r="F14" t="n">
-        <v>198.5464654369625</v>
+        <v>198.5464654369624</v>
       </c>
       <c r="G14" t="n">
-        <v>214.1733032425596</v>
+        <v>163.952843160293</v>
       </c>
       <c r="H14" t="n">
-        <v>142.2448436041343</v>
+        <v>59.58218270704018</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>35.89105811681786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>17.76019284593434</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>45.49679044823559</v>
       </c>
       <c r="V14" t="n">
-        <v>116.226999406101</v>
+        <v>33.56433850900692</v>
       </c>
       <c r="W14" t="n">
-        <v>50.58101872562196</v>
+        <v>133.2436796227158</v>
       </c>
       <c r="X14" t="n">
-        <v>155.1299300916552</v>
+        <v>155.129930091655</v>
       </c>
       <c r="Y14" t="n">
-        <v>177.6327832153989</v>
+        <v>94.97012231830479</v>
       </c>
     </row>
     <row r="15">
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.340816169499703</v>
+        <v>1.340816169499533</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>2.995261989190396</v>
+        <v>2.995261989190226</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -26314,43 +26314,43 @@
         <v>308676.1983117608</v>
       </c>
       <c r="C2" t="n">
+        <v>308676.1983117609</v>
+      </c>
+      <c r="D2" t="n">
         <v>308676.1983117608</v>
       </c>
-      <c r="D2" t="n">
-        <v>308676.198311761</v>
-      </c>
       <c r="E2" t="n">
-        <v>265996.5311571679</v>
+        <v>265996.5311571678</v>
       </c>
       <c r="F2" t="n">
-        <v>265996.5311571677</v>
+        <v>265996.531157168</v>
       </c>
       <c r="G2" t="n">
         <v>309301.4921004876</v>
       </c>
       <c r="H2" t="n">
+        <v>309301.4921004876</v>
+      </c>
+      <c r="I2" t="n">
         <v>309301.4921004877</v>
       </c>
-      <c r="I2" t="n">
-        <v>309301.4921004876</v>
-      </c>
       <c r="J2" t="n">
-        <v>309301.4921004879</v>
+        <v>309301.492100488</v>
       </c>
       <c r="K2" t="n">
-        <v>309301.4921004878</v>
+        <v>309301.492100488</v>
       </c>
       <c r="L2" t="n">
         <v>309301.4921004879</v>
       </c>
       <c r="M2" t="n">
-        <v>309301.4921004873</v>
+        <v>309301.4921004874</v>
       </c>
       <c r="N2" t="n">
-        <v>309301.4921004873</v>
+        <v>309301.4921004877</v>
       </c>
       <c r="O2" t="n">
-        <v>309301.4921004873</v>
+        <v>309301.4921004878</v>
       </c>
       <c r="P2" t="n">
         <v>309301.4921004873</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>272100.1210438668</v>
+        <v>272100.1210438669</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105208.5138763725</v>
+        <v>105208.5138763724</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>161490.7661438377</v>
+        <v>161490.7661438378</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>105208.5138763725</v>
+        <v>105208.5138763724</v>
       </c>
       <c r="M3" t="n">
-        <v>18266.68546817848</v>
+        <v>18266.6854681785</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65067.86905818315</v>
+        <v>65067.86905818326</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26448,7 +26448,7 @@
         <v>465554.6357675862</v>
       </c>
       <c r="M4" t="n">
-        <v>465183.335866207</v>
+        <v>465183.3358662071</v>
       </c>
       <c r="N4" t="n">
         <v>465183.335866207</v>
@@ -26479,37 +26479,37 @@
         <v>24501.91760808067</v>
       </c>
       <c r="F5" t="n">
-        <v>24501.91760808066</v>
+        <v>24501.91760808067</v>
       </c>
       <c r="G5" t="n">
+        <v>35557.88579942162</v>
+      </c>
+      <c r="H5" t="n">
+        <v>35557.88579942162</v>
+      </c>
+      <c r="I5" t="n">
         <v>35557.88579942161</v>
-      </c>
-      <c r="H5" t="n">
-        <v>35557.88579942161</v>
-      </c>
-      <c r="I5" t="n">
-        <v>35557.88579942162</v>
       </c>
       <c r="J5" t="n">
         <v>47597.11518397226</v>
       </c>
       <c r="K5" t="n">
-        <v>47597.11518397226</v>
+        <v>47597.11518397227</v>
       </c>
       <c r="L5" t="n">
-        <v>47597.11518397226</v>
+        <v>47597.11518397227</v>
       </c>
       <c r="M5" t="n">
-        <v>44490.80287720932</v>
+        <v>44490.80287720933</v>
       </c>
       <c r="N5" t="n">
-        <v>44490.80287720932</v>
+        <v>44490.80287720934</v>
       </c>
       <c r="O5" t="n">
-        <v>44490.80287720932</v>
+        <v>44490.80287720934</v>
       </c>
       <c r="P5" t="n">
-        <v>44490.80287720932</v>
+        <v>44490.80287720933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-223936.0776729945</v>
+        <v>-223940.5440571997</v>
       </c>
       <c r="C6" t="n">
-        <v>-223936.0776729946</v>
+        <v>-223940.5440571997</v>
       </c>
       <c r="D6" t="n">
-        <v>-223936.0776729944</v>
+        <v>-223940.5440571997</v>
       </c>
       <c r="E6" t="n">
-        <v>-424214.6360201633</v>
+        <v>-424523.9571697586</v>
       </c>
       <c r="F6" t="n">
-        <v>-152114.5149762965</v>
+        <v>-152423.8361258915</v>
       </c>
       <c r="G6" t="n">
-        <v>-295604.3324171963</v>
+        <v>-295604.3324171962</v>
       </c>
       <c r="H6" t="n">
-        <v>-190395.8185408237</v>
+        <v>-190395.8185408238</v>
       </c>
       <c r="I6" t="n">
-        <v>-190395.8185408238</v>
+        <v>-190395.8185408236</v>
       </c>
       <c r="J6" t="n">
         <v>-365341.0249949082</v>
       </c>
       <c r="K6" t="n">
-        <v>-203850.2588510707</v>
+        <v>-203850.2588510705</v>
       </c>
       <c r="L6" t="n">
-        <v>-309058.7727274431</v>
+        <v>-309058.772727443</v>
       </c>
       <c r="M6" t="n">
         <v>-218639.3321111075</v>
       </c>
       <c r="N6" t="n">
-        <v>-200372.6466429291</v>
+        <v>-200372.6466429287</v>
       </c>
       <c r="O6" t="n">
-        <v>-265440.5157011122</v>
+        <v>-265440.5157011119</v>
       </c>
       <c r="P6" t="n">
-        <v>-200372.646642929</v>
+        <v>-200372.6466429289</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>204.6527842030511</v>
       </c>
       <c r="F2" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="G2" t="n">
         <v>336.1634265485166</v>
@@ -26710,10 +26710,10 @@
         <v>212.8454786681945</v>
       </c>
       <c r="K2" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="L2" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="M2" t="n">
         <v>235.6788355034177</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>104.1776564390392</v>
+        <v>104.1776564390393</v>
       </c>
       <c r="F3" t="n">
-        <v>104.1776564390392</v>
+        <v>104.1776564390393</v>
       </c>
       <c r="G3" t="n">
-        <v>104.1776564390392</v>
+        <v>104.1776564390393</v>
       </c>
       <c r="H3" t="n">
-        <v>104.1776564390392</v>
+        <v>104.1776564390393</v>
       </c>
       <c r="I3" t="n">
-        <v>104.1776564390392</v>
+        <v>104.1776564390393</v>
       </c>
       <c r="J3" t="n">
-        <v>104.1776564390392</v>
+        <v>104.1776564390393</v>
       </c>
       <c r="K3" t="n">
-        <v>104.1776564390392</v>
+        <v>104.1776564390393</v>
       </c>
       <c r="L3" t="n">
-        <v>104.1776564390392</v>
+        <v>104.1776564390393</v>
       </c>
       <c r="M3" t="n">
-        <v>104.1776564390392</v>
+        <v>104.1776564390393</v>
       </c>
       <c r="N3" t="n">
-        <v>104.1776564390392</v>
+        <v>104.1776564390393</v>
       </c>
       <c r="O3" t="n">
-        <v>104.1776564390392</v>
+        <v>104.1776564390393</v>
       </c>
       <c r="P3" t="n">
-        <v>104.1776564390392</v>
+        <v>104.1776564390393</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="F4" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="G4" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="H4" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="I4" t="n">
         <v>82.66266089709399</v>
       </c>
       <c r="J4" t="n">
-        <v>451.1897323592888</v>
+        <v>451.1897323592889</v>
       </c>
       <c r="K4" t="n">
-        <v>451.1897323592888</v>
+        <v>451.1897323592889</v>
       </c>
       <c r="L4" t="n">
-        <v>451.1897323592888</v>
+        <v>451.1897323592889</v>
       </c>
       <c r="M4" t="n">
-        <v>368.5270714621948</v>
+        <v>368.527071462195</v>
       </c>
       <c r="N4" t="n">
-        <v>368.5270714621948</v>
+        <v>368.527071462195</v>
       </c>
       <c r="O4" t="n">
-        <v>368.5270714621948</v>
+        <v>368.527071462195</v>
       </c>
       <c r="P4" t="n">
-        <v>368.5270714621948</v>
+        <v>368.527071462195</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>131.5106423454656</v>
+        <v>131.5106423454655</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.33483632272893</v>
+        <v>81.33483632272907</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.5106423454656</v>
+        <v>131.5106423454655</v>
       </c>
       <c r="M2" t="n">
-        <v>22.8333568352231</v>
+        <v>22.83335683522313</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.33483632272893</v>
+        <v>81.33483632272907</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>104.1776564390392</v>
+        <v>104.1776564390393</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>368.5270714621948</v>
+        <v>368.5270714621949</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.5106423454656</v>
+        <v>131.5106423454655</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.33483632272893</v>
+        <v>81.33483632272907</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28114,7 +28114,7 @@
         <v>75.75587581289102</v>
       </c>
       <c r="K11" t="n">
-        <v>85.89018955409099</v>
+        <v>5.189869058379855</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28129,10 +28129,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.35405989412964</v>
+        <v>13.35405989412963</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.40663715938582</v>
+        <v>169.106957655097</v>
       </c>
       <c r="R11" t="n">
         <v>194.1223785227293</v>
@@ -28184,7 +28184,7 @@
         <v>148.7381381529399</v>
       </c>
       <c r="H12" t="n">
-        <v>49.55290815088233</v>
+        <v>125.6730735315877</v>
       </c>
       <c r="I12" t="n">
         <v>107.1407760227504</v>
@@ -28211,16 +28211,16 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.044035583042486</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>134.3183216232903</v>
       </c>
       <c r="S12" t="n">
-        <v>191.4706822307765</v>
+        <v>108.8080213336825</v>
       </c>
       <c r="T12" t="n">
-        <v>132.2821988942286</v>
+        <v>144.8687299936593</v>
       </c>
       <c r="U12" t="n">
         <v>204.6527842030511</v>
@@ -28257,7 +28257,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>142.0821746212499</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
         <v>168.695353780268</v>
@@ -28266,28 +28266,28 @@
         <v>165.7761987305484</v>
       </c>
       <c r="I13" t="n">
-        <v>204.6527842030511</v>
+        <v>164.6899393962033</v>
       </c>
       <c r="J13" t="n">
         <v>202.5189933952717</v>
       </c>
       <c r="K13" t="n">
-        <v>66.40014143752288</v>
+        <v>149.0628023346169</v>
       </c>
       <c r="L13" t="n">
-        <v>31.34583955592037</v>
+        <v>114.0085004530143</v>
       </c>
       <c r="M13" t="n">
-        <v>107.0297368802718</v>
+        <v>67.48521319282854</v>
       </c>
       <c r="N13" t="n">
         <v>15.69057404649869</v>
       </c>
       <c r="O13" t="n">
-        <v>36.71262952723532</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P13" t="n">
-        <v>140.4855967232443</v>
+        <v>57.82293582615034</v>
       </c>
       <c r="Q13" t="n">
         <v>126.7630388368461</v>
@@ -28324,37 +28324,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="C14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="D14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="E14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="F14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="G14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="H14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="I14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="J14" t="n">
         <v>75.75587581289102</v>
       </c>
       <c r="K14" t="n">
-        <v>5.189869058379863</v>
+        <v>5.189869058379855</v>
       </c>
       <c r="L14" t="n">
-        <v>33.56270548453553</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -28363,37 +28363,37 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>46.06008956889812</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>14.43158533640714</v>
+        <v>13.35405989412963</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.40663715938582</v>
+        <v>158.5765519747752</v>
       </c>
       <c r="R14" t="n">
-        <v>194.1223785227293</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="S14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="T14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="U14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="V14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="W14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="X14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
     </row>
     <row r="15">
@@ -28409,7 +28409,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>76.50965417948458</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -28418,7 +28418,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>82.91004836050662</v>
+        <v>148.7381381529399</v>
       </c>
       <c r="H15" t="n">
         <v>125.6730735315877</v>
@@ -28427,7 +28427,7 @@
         <v>107.1407760227504</v>
       </c>
       <c r="J15" t="n">
-        <v>51.86424478979234</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.044035583042486</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.3183216232903</v>
+        <v>51.65566072619634</v>
       </c>
       <c r="S15" t="n">
         <v>191.4706822307765</v>
       </c>
       <c r="T15" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="U15" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="V15" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="W15" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="X15" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="Y15" t="n">
-        <v>204.652784203051</v>
+        <v>196.7329747834516</v>
       </c>
     </row>
     <row r="16">
@@ -28482,19 +28482,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>202.3919136002033</v>
       </c>
       <c r="D16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="G16" t="n">
         <v>168.695353780268</v>
@@ -28503,28 +28503,28 @@
         <v>165.7761987305484</v>
       </c>
       <c r="I16" t="n">
-        <v>164.6899393962033</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="J16" t="n">
         <v>119.8563324981777</v>
       </c>
       <c r="K16" t="n">
-        <v>149.0628023346168</v>
+        <v>66.40014143752288</v>
       </c>
       <c r="L16" t="n">
-        <v>114.0085004530143</v>
+        <v>31.34583955592037</v>
       </c>
       <c r="M16" t="n">
         <v>24.36707598317781</v>
       </c>
       <c r="N16" t="n">
-        <v>82.0012382009038</v>
+        <v>15.69057404649869</v>
       </c>
       <c r="O16" t="n">
-        <v>36.71262952723532</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P16" t="n">
-        <v>57.82293582615035</v>
+        <v>57.82293582615034</v>
       </c>
       <c r="Q16" t="n">
         <v>126.7630388368461</v>
@@ -28533,25 +28533,25 @@
         <v>203.1862066784475</v>
       </c>
       <c r="S16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="T16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="U16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="V16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="W16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="X16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
     </row>
     <row r="17">
@@ -28588,7 +28588,7 @@
         <v>75.75587581289102</v>
       </c>
       <c r="K17" t="n">
-        <v>5.189869058379863</v>
+        <v>5.189869058379855</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,22 +28603,22 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.35405989412964</v>
+        <v>13.35405989412963</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.40663715938582</v>
+        <v>88.40663715938581</v>
       </c>
       <c r="R17" t="n">
         <v>194.1223785227293</v>
       </c>
       <c r="S17" t="n">
-        <v>292.6582733952916</v>
+        <v>227.241595838945</v>
       </c>
       <c r="T17" t="n">
         <v>222.4129770489855</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1495746512867</v>
+        <v>315.5662522076333</v>
       </c>
       <c r="V17" t="n">
         <v>336.1634265485166</v>
@@ -28643,19 +28643,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>104.855490627272</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>99.01830012163934</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>76.16077822283438</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>66.07547725584598</v>
+        <v>148.7381381529399</v>
       </c>
       <c r="H18" t="n">
         <v>125.6730735315877</v>
@@ -28685,22 +28685,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.044035583042486</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.3183216232903</v>
+        <v>51.65566072619634</v>
       </c>
       <c r="S18" t="n">
-        <v>191.4706822307765</v>
+        <v>124.7054460956586</v>
       </c>
       <c r="T18" t="n">
         <v>214.9448597913225</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2276440809881</v>
+        <v>154.5649831838942</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>157.9862600183083</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28758,10 +28758,10 @@
         <v>15.69057404649869</v>
       </c>
       <c r="O19" t="n">
-        <v>36.71262952723532</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P19" t="n">
-        <v>57.82293582615035</v>
+        <v>57.82293582615034</v>
       </c>
       <c r="Q19" t="n">
         <v>126.7630388368461</v>
@@ -28822,10 +28822,10 @@
         <v>240.543842319869</v>
       </c>
       <c r="J20" t="n">
-        <v>156.4561963086022</v>
+        <v>75.75587581289102</v>
       </c>
       <c r="K20" t="n">
-        <v>5.189869058379863</v>
+        <v>5.189869058379855</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,10 +28840,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.35405989412964</v>
+        <v>13.35405989412963</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.40663715938582</v>
+        <v>88.40663715938581</v>
       </c>
       <c r="R20" t="n">
         <v>194.1223785227293</v>
@@ -28855,10 +28855,10 @@
         <v>222.4129770489855</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1495746512867</v>
+        <v>315.5662522076333</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="W20" t="n">
         <v>336.1634265485166</v>
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>94.08783350057178</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
@@ -28886,13 +28886,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>99.01830012163934</v>
+        <v>89.16491094270569</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7381381529399</v>
+        <v>81.97290201782204</v>
       </c>
       <c r="H21" t="n">
         <v>125.6730735315877</v>
@@ -28922,7 +28922,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.044035583042486</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>134.3183216232903</v>
@@ -28931,22 +28931,22 @@
         <v>191.4706822307765</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9448597913225</v>
+        <v>132.2821988942285</v>
       </c>
       <c r="U21" t="n">
         <v>237.2276440809881</v>
       </c>
       <c r="V21" t="n">
-        <v>157.9862600183083</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>184.0419226799176</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>140.7216252369317</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -28995,10 +28995,10 @@
         <v>15.69057404649869</v>
       </c>
       <c r="O22" t="n">
-        <v>36.71262952723532</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P22" t="n">
-        <v>57.82293582615035</v>
+        <v>57.82293582615034</v>
       </c>
       <c r="Q22" t="n">
         <v>126.7630388368461</v>
@@ -29062,7 +29062,7 @@
         <v>75.75587581289102</v>
       </c>
       <c r="K23" t="n">
-        <v>5.189869058379863</v>
+        <v>5.189869058379855</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,10 +29077,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.35405989412964</v>
+        <v>13.35405989412963</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.40663715938582</v>
+        <v>88.40663715938581</v>
       </c>
       <c r="R23" t="n">
         <v>194.1223785227293</v>
@@ -29089,13 +29089,13 @@
         <v>227.241595838945</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4129770489855</v>
+        <v>303.1132975446967</v>
       </c>
       <c r="U23" t="n">
-        <v>315.5662522076333</v>
+        <v>250.1495746512867</v>
       </c>
       <c r="V23" t="n">
-        <v>336.1634265485166</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
         <v>336.1634265485166</v>
@@ -29117,10 +29117,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>104.8554906272719</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>76.50965417948456</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
@@ -29129,7 +29129,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>75.92886643477958</v>
+        <v>148.7381381529399</v>
       </c>
       <c r="H24" t="n">
         <v>125.6730735315877</v>
@@ -29159,16 +29159,16 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.044035583042486</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.3183216232903</v>
+        <v>51.65566072619634</v>
       </c>
       <c r="S24" t="n">
-        <v>191.4706822307765</v>
+        <v>108.8080213336825</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9448597913225</v>
+        <v>148.1796236562046</v>
       </c>
       <c r="U24" t="n">
         <v>237.2276440809881</v>
@@ -29232,10 +29232,10 @@
         <v>15.69057404649869</v>
       </c>
       <c r="O25" t="n">
-        <v>36.71262952723532</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P25" t="n">
-        <v>57.82293582615035</v>
+        <v>57.82293582615034</v>
       </c>
       <c r="Q25" t="n">
         <v>126.7630388368461</v>
@@ -29302,7 +29302,7 @@
         <v>212.8454786681945</v>
       </c>
       <c r="L26" t="n">
-        <v>212.8454786681951</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="M26" t="n">
         <v>212.8454786681945</v>
@@ -29311,7 +29311,7 @@
         <v>212.8454786681945</v>
       </c>
       <c r="O26" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681949</v>
       </c>
       <c r="P26" t="n">
         <v>212.8454786681945</v>
@@ -29351,10 +29351,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29363,7 +29363,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>148.7381381529399</v>
@@ -29372,7 +29372,7 @@
         <v>125.6730735315877</v>
       </c>
       <c r="I27" t="n">
-        <v>55.44569992888098</v>
+        <v>107.1407760227504</v>
       </c>
       <c r="J27" t="n">
         <v>51.86424478979234</v>
@@ -29411,13 +29411,13 @@
         <v>212.8454786681945</v>
       </c>
       <c r="V27" t="n">
-        <v>212.8454786681945</v>
+        <v>168.5506744404163</v>
       </c>
       <c r="W27" t="n">
         <v>212.8454786681945</v>
       </c>
       <c r="X27" t="n">
-        <v>212.8454786681945</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -29430,19 +29430,19 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>177.6169206649681</v>
+      </c>
+      <c r="C28" t="n">
         <v>212.8454786681945</v>
       </c>
-      <c r="C28" t="n">
-        <v>166.4571809719723</v>
-      </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>142.5678419495684</v>
       </c>
       <c r="G28" t="n">
         <v>168.695353780268</v>
@@ -29451,10 +29451,10 @@
         <v>165.7761987305484</v>
       </c>
       <c r="I28" t="n">
-        <v>164.6899393962033</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="J28" t="n">
-        <v>212.8454786681945</v>
+        <v>119.8563324981777</v>
       </c>
       <c r="K28" t="n">
         <v>66.40014143752288</v>
@@ -29466,16 +29466,16 @@
         <v>24.36707598317781</v>
       </c>
       <c r="N28" t="n">
-        <v>38.40739261469581</v>
+        <v>15.69057404649869</v>
       </c>
       <c r="O28" t="n">
-        <v>36.71262952723532</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P28" t="n">
-        <v>57.82293582615035</v>
+        <v>57.82293582615034</v>
       </c>
       <c r="Q28" t="n">
-        <v>212.8454786681945</v>
+        <v>126.7630388368461</v>
       </c>
       <c r="R28" t="n">
         <v>203.1862066784475</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="C29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="D29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="E29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="F29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="G29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="H29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="I29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="J29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="K29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="L29" t="n">
-        <v>212.8454786681941</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="M29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="O29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="P29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681953</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="R29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="S29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="T29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="U29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="V29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="W29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="X29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
     </row>
     <row r="30">
@@ -29588,13 +29588,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>21.66107012915072</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -29606,7 +29606,7 @@
         <v>148.7381381529399</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.6730735315877</v>
       </c>
       <c r="I30" t="n">
         <v>107.1407760227504</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.044035583042486</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.3183216232903</v>
@@ -29642,22 +29642,22 @@
         <v>191.4706822307765</v>
       </c>
       <c r="T30" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="U30" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="W30" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="X30" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Y30" t="n">
-        <v>212.8454786681946</v>
+        <v>78.78252657827156</v>
       </c>
     </row>
     <row r="31">
@@ -29670,16 +29670,16 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>166.4571809719723</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1826502507107</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="E31" t="n">
-        <v>141.676141212225</v>
+        <v>190.7233812215596</v>
       </c>
       <c r="F31" t="n">
-        <v>138.9268822184467</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="G31" t="n">
         <v>168.695353780268</v>
@@ -29688,7 +29688,7 @@
         <v>165.7761987305484</v>
       </c>
       <c r="I31" t="n">
-        <v>212.8454786681946</v>
+        <v>164.6899393962033</v>
       </c>
       <c r="J31" t="n">
         <v>119.8563324981777</v>
@@ -29700,43 +29700,43 @@
         <v>31.34583955592037</v>
       </c>
       <c r="M31" t="n">
-        <v>203.5692272942275</v>
+        <v>24.36707598317781</v>
       </c>
       <c r="N31" t="n">
         <v>15.69057404649869</v>
       </c>
       <c r="O31" t="n">
-        <v>36.71262952723532</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P31" t="n">
-        <v>57.82293582615035</v>
+        <v>57.82293582615034</v>
       </c>
       <c r="Q31" t="n">
         <v>126.7630388368461</v>
       </c>
       <c r="R31" t="n">
-        <v>212.8454786681946</v>
+        <v>203.1862066784475</v>
       </c>
       <c r="S31" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="T31" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="U31" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="V31" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="W31" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="X31" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="C32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="D32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="E32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="F32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="G32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="H32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="I32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="J32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="K32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="L32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="M32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="N32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="O32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="P32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="R32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="S32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="T32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="U32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="V32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="W32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="X32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
     </row>
     <row r="33">
@@ -29825,22 +29825,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>85.74262371510011</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7381381529399</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>125.6730735315877</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.044035583042486</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>134.3183216232903</v>
@@ -29879,22 +29879,22 @@
         <v>191.4706822307765</v>
       </c>
       <c r="T33" t="n">
-        <v>212.8454786681946</v>
+        <v>104.4433339251617</v>
       </c>
       <c r="U33" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="W33" t="n">
-        <v>212.8454786681946</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
     </row>
     <row r="34">
@@ -29907,28 +29907,28 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>141.676141212225</v>
+        <v>163.1613904294058</v>
       </c>
       <c r="F34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="G34" t="n">
-        <v>212.8454786681946</v>
+        <v>168.695353780268</v>
       </c>
       <c r="H34" t="n">
-        <v>165.7761987305484</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="I34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="J34" t="n">
-        <v>180.9897624715531</v>
+        <v>119.8563324981777</v>
       </c>
       <c r="K34" t="n">
         <v>66.40014143752288</v>
@@ -29943,37 +29943,37 @@
         <v>15.69057404649869</v>
       </c>
       <c r="O34" t="n">
-        <v>36.71262952723532</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P34" t="n">
-        <v>57.82293582615035</v>
+        <v>57.82293582615034</v>
       </c>
       <c r="Q34" t="n">
         <v>126.7630388368461</v>
       </c>
       <c r="R34" t="n">
-        <v>212.8454786681946</v>
+        <v>203.1862066784475</v>
       </c>
       <c r="S34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="T34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="U34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="V34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="W34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="X34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
     </row>
     <row r="35">
@@ -30010,34 +30010,34 @@
         <v>235.6788355034177</v>
       </c>
       <c r="K35" t="n">
+        <v>152.5224587767559</v>
+      </c>
+      <c r="L35" t="n">
         <v>235.6788355034177</v>
       </c>
-      <c r="L35" t="n">
-        <v>72.46485984214495</v>
-      </c>
       <c r="M35" t="n">
-        <v>235.6788355034177</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>235.6788355034177</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>235.6788355034177</v>
       </c>
       <c r="P35" t="n">
-        <v>13.35405989412964</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="Q35" t="n">
-        <v>88.40663715938582</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="R35" t="n">
         <v>235.6788355034177</v>
       </c>
       <c r="S35" t="n">
-        <v>227.241595838945</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4129770489855</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="U35" t="n">
         <v>235.6788355034177</v>
@@ -30065,7 +30065,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30083,10 +30083,10 @@
         <v>125.6730735315877</v>
       </c>
       <c r="I36" t="n">
-        <v>107.1407760227504</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>51.86424478979234</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30122,13 +30122,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>161.7738414206716</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>235.6788355034177</v>
+        <v>151.6266317727953</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30180,10 +30180,10 @@
         <v>15.69057404649869</v>
       </c>
       <c r="O37" t="n">
-        <v>36.71262952723532</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P37" t="n">
-        <v>57.82293582615035</v>
+        <v>57.82293582615034</v>
       </c>
       <c r="Q37" t="n">
         <v>126.7630388368461</v>
@@ -30247,7 +30247,7 @@
         <v>75.75587581289102</v>
       </c>
       <c r="K38" t="n">
-        <v>85.20382262833706</v>
+        <v>104.9689800504234</v>
       </c>
       <c r="L38" t="n">
         <v>235.6788355034177</v>
@@ -30259,19 +30259,19 @@
         <v>235.6788355034177</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="P38" t="n">
-        <v>235.6788355034177</v>
+        <v>13.35405989412963</v>
       </c>
       <c r="Q38" t="n">
         <v>235.6788355034177</v>
       </c>
       <c r="R38" t="n">
+        <v>194.1223785227293</v>
+      </c>
+      <c r="S38" t="n">
         <v>235.6788355034177</v>
-      </c>
-      <c r="S38" t="n">
-        <v>227.241595838945</v>
       </c>
       <c r="T38" t="n">
         <v>235.6788355034177</v>
@@ -30299,16 +30299,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
@@ -30320,7 +30320,7 @@
         <v>125.6730735315877</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>107.1407760227504</v>
       </c>
       <c r="J39" t="n">
         <v>51.86424478979234</v>
@@ -30344,28 +30344,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.044035583042486</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.3183216232903</v>
       </c>
       <c r="S39" t="n">
         <v>191.4706822307765</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9448597913225</v>
       </c>
       <c r="U39" t="n">
-        <v>235.6788355034177</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>235.6788355034177</v>
+        <v>92.8655849310791</v>
       </c>
       <c r="W39" t="n">
         <v>235.6788355034177</v>
       </c>
       <c r="X39" t="n">
-        <v>125.0855125835909</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30396,13 +30396,13 @@
         <v>168.695353780268</v>
       </c>
       <c r="H40" t="n">
-        <v>165.7761987305484</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="I40" t="n">
         <v>164.6899393962033</v>
       </c>
       <c r="J40" t="n">
-        <v>119.8563324981777</v>
+        <v>169.369548223193</v>
       </c>
       <c r="K40" t="n">
         <v>66.40014143752288</v>
@@ -30411,16 +30411,16 @@
         <v>31.34583955592037</v>
       </c>
       <c r="M40" t="n">
-        <v>131.8424883458252</v>
+        <v>24.36707598317781</v>
       </c>
       <c r="N40" t="n">
         <v>15.69057404649869</v>
       </c>
       <c r="O40" t="n">
-        <v>36.71262952723532</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P40" t="n">
-        <v>57.82293582615035</v>
+        <v>57.82293582615034</v>
       </c>
       <c r="Q40" t="n">
         <v>126.7630388368461</v>
@@ -30432,7 +30432,7 @@
         <v>235.3435685609305</v>
       </c>
       <c r="T40" t="n">
-        <v>235.6788355034177</v>
+        <v>223.7383953681803</v>
       </c>
       <c r="U40" t="n">
         <v>235.6788355034177</v>
@@ -30487,19 +30487,19 @@
         <v>235.6788355034177</v>
       </c>
       <c r="L41" t="n">
-        <v>147.6056385470986</v>
+        <v>152.5224587767555</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>235.6788355034177</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>235.6788355034177</v>
       </c>
       <c r="P41" t="n">
-        <v>13.35405989412964</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="Q41" t="n">
         <v>235.6788355034177</v>
@@ -30508,7 +30508,7 @@
         <v>235.6788355034177</v>
       </c>
       <c r="S41" t="n">
-        <v>227.241595838945</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="T41" t="n">
         <v>235.6788355034177</v>
@@ -30542,16 +30542,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>5.042312587535946</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7381381529399</v>
+        <v>82.46688528168157</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -30560,7 +30560,7 @@
         <v>107.1407760227504</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>51.86424478979234</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,13 +30581,13 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.044035583042486</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>134.3183216232903</v>
       </c>
       <c r="S42" t="n">
-        <v>191.4706822307765</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>214.9448597913225</v>
@@ -30602,7 +30602,7 @@
         <v>235.6788355034177</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30618,10 +30618,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
-        <v>166.4571809719723</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="D43" t="n">
-        <v>145.1826502507107</v>
+        <v>195.3768482171499</v>
       </c>
       <c r="E43" t="n">
         <v>141.676141212225</v>
@@ -30654,10 +30654,10 @@
         <v>15.69057404649869</v>
       </c>
       <c r="O43" t="n">
-        <v>156.1284820251201</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P43" t="n">
-        <v>57.82293582615035</v>
+        <v>57.82293582615034</v>
       </c>
       <c r="Q43" t="n">
         <v>126.7630388368461</v>
@@ -30721,28 +30721,28 @@
         <v>235.6788355034177</v>
       </c>
       <c r="K44" t="n">
-        <v>59.1990013877127</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="L44" t="n">
-        <v>235.6788355034177</v>
+        <v>202.516155421917</v>
       </c>
       <c r="M44" t="n">
         <v>235.6788355034177</v>
       </c>
       <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>235.6788355034177</v>
       </c>
-      <c r="O44" t="n">
+      <c r="Q44" t="n">
         <v>235.6788355034177</v>
       </c>
-      <c r="P44" t="n">
-        <v>13.35405989412964</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>88.40663715938582</v>
-      </c>
       <c r="R44" t="n">
-        <v>235.6788355034177</v>
+        <v>194.1223785227293</v>
       </c>
       <c r="S44" t="n">
         <v>227.241595838945</v>
@@ -30773,13 +30773,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
@@ -30788,16 +30788,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>39.99923523306533</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>125.6730735315877</v>
       </c>
       <c r="I45" t="n">
-        <v>107.1407760227504</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>51.86424478979234</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.3183216232903</v>
       </c>
       <c r="S45" t="n">
         <v>191.4706822307765</v>
@@ -30830,13 +30830,13 @@
         <v>214.9448597913225</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>164.9299083931442</v>
       </c>
       <c r="V45" t="n">
         <v>235.6788355034177</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30864,7 +30864,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="G46" t="n">
         <v>168.695353780268</v>
@@ -30888,16 +30888,16 @@
         <v>24.36707598317781</v>
       </c>
       <c r="N46" t="n">
-        <v>135.1064265443834</v>
+        <v>15.69057404649869</v>
       </c>
       <c r="O46" t="n">
-        <v>36.71262952723532</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P46" t="n">
-        <v>57.82293582615035</v>
+        <v>57.82293582615034</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.7630388368461</v>
+        <v>149.4269380497597</v>
       </c>
       <c r="R46" t="n">
         <v>203.1862066784475</v>
@@ -31750,34 +31750,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4188046490011624</v>
+        <v>0.4188046490011625</v>
       </c>
       <c r="H11" t="n">
-        <v>4.289083111583156</v>
+        <v>4.289083111583157</v>
       </c>
       <c r="I11" t="n">
         <v>16.14596623061733</v>
       </c>
       <c r="J11" t="n">
-        <v>35.54552107816244</v>
+        <v>35.54552107816245</v>
       </c>
       <c r="K11" t="n">
-        <v>53.27352187038166</v>
+        <v>53.27352187038167</v>
       </c>
       <c r="L11" t="n">
-        <v>66.090514647251</v>
+        <v>66.09051464725101</v>
       </c>
       <c r="M11" t="n">
-        <v>73.53843182392542</v>
+        <v>73.53843182392544</v>
       </c>
       <c r="N11" t="n">
         <v>74.72836053289998</v>
       </c>
       <c r="O11" t="n">
-        <v>70.56387180439467</v>
+        <v>70.56387180439468</v>
       </c>
       <c r="P11" t="n">
-        <v>60.22463203217846</v>
+        <v>60.22463203217847</v>
       </c>
       <c r="Q11" t="n">
         <v>45.22619053982432</v>
@@ -31786,7 +31786,7 @@
         <v>26.3077375328193</v>
       </c>
       <c r="S11" t="n">
-        <v>9.543510939113999</v>
+        <v>9.543510939114</v>
       </c>
       <c r="T11" t="n">
         <v>1.83331735100259</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2240802421518957</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H12" t="n">
         <v>2.164143391309099</v>
       </c>
       <c r="I12" t="n">
-        <v>7.715043424966586</v>
+        <v>7.715043424966588</v>
       </c>
       <c r="J12" t="n">
-        <v>21.17066884295608</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K12" t="n">
-        <v>36.18404506713309</v>
+        <v>36.1840450671331</v>
       </c>
       <c r="L12" t="n">
-        <v>48.65391398127017</v>
+        <v>48.65391398127018</v>
       </c>
       <c r="M12" t="n">
         <v>56.77682275927638</v>
       </c>
       <c r="N12" t="n">
-        <v>58.27953631300555</v>
+        <v>58.27953631300556</v>
       </c>
       <c r="O12" t="n">
-        <v>53.31438989479775</v>
+        <v>53.31438989479776</v>
       </c>
       <c r="P12" t="n">
-        <v>42.78949817021595</v>
+        <v>42.78949817021596</v>
       </c>
       <c r="Q12" t="n">
         <v>28.60364634907357</v>
@@ -31865,10 +31865,10 @@
         <v>13.91263117500981</v>
       </c>
       <c r="S12" t="n">
-        <v>4.162192217163499</v>
+        <v>4.1621922171635</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9032006251648776</v>
+        <v>0.9032006251648778</v>
       </c>
       <c r="U12" t="n">
         <v>0.01474212119420367</v>
@@ -31932,22 +31932,22 @@
         <v>28.74790968587457</v>
       </c>
       <c r="O13" t="n">
-        <v>26.55334757892102</v>
+        <v>26.55334757892103</v>
       </c>
       <c r="P13" t="n">
-        <v>22.7209760863111</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.73082612229492</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R13" t="n">
-        <v>8.446929323729309</v>
+        <v>8.446929323729311</v>
       </c>
       <c r="S13" t="n">
-        <v>3.273910940879313</v>
+        <v>3.273910940879314</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8026803037106299</v>
+        <v>0.80268030371063</v>
       </c>
       <c r="U13" t="n">
         <v>0.01024698260056125</v>
@@ -31987,34 +31987,34 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4188046490011624</v>
+        <v>0.4188046490011625</v>
       </c>
       <c r="H14" t="n">
-        <v>4.289083111583156</v>
+        <v>4.289083111583157</v>
       </c>
       <c r="I14" t="n">
         <v>16.14596623061733</v>
       </c>
       <c r="J14" t="n">
-        <v>35.54552107816244</v>
+        <v>35.54552107816245</v>
       </c>
       <c r="K14" t="n">
-        <v>53.27352187038166</v>
+        <v>53.27352187038167</v>
       </c>
       <c r="L14" t="n">
-        <v>66.090514647251</v>
+        <v>66.09051464725101</v>
       </c>
       <c r="M14" t="n">
-        <v>73.53843182392542</v>
+        <v>73.53843182392544</v>
       </c>
       <c r="N14" t="n">
         <v>74.72836053289998</v>
       </c>
       <c r="O14" t="n">
-        <v>70.56387180439467</v>
+        <v>70.56387180439468</v>
       </c>
       <c r="P14" t="n">
-        <v>60.22463203217846</v>
+        <v>60.22463203217847</v>
       </c>
       <c r="Q14" t="n">
         <v>45.22619053982432</v>
@@ -32023,7 +32023,7 @@
         <v>26.3077375328193</v>
       </c>
       <c r="S14" t="n">
-        <v>9.543510939113999</v>
+        <v>9.543510939114</v>
       </c>
       <c r="T14" t="n">
         <v>1.83331735100259</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2240802421518957</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H15" t="n">
         <v>2.164143391309099</v>
       </c>
       <c r="I15" t="n">
-        <v>7.715043424966586</v>
+        <v>7.715043424966588</v>
       </c>
       <c r="J15" t="n">
-        <v>21.17066884295608</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K15" t="n">
-        <v>36.18404506713309</v>
+        <v>36.1840450671331</v>
       </c>
       <c r="L15" t="n">
-        <v>48.65391398127017</v>
+        <v>48.65391398127018</v>
       </c>
       <c r="M15" t="n">
         <v>56.77682275927638</v>
       </c>
       <c r="N15" t="n">
-        <v>58.27953631300555</v>
+        <v>58.27953631300556</v>
       </c>
       <c r="O15" t="n">
-        <v>53.31438989479775</v>
+        <v>53.31438989479776</v>
       </c>
       <c r="P15" t="n">
-        <v>42.78949817021595</v>
+        <v>42.78949817021596</v>
       </c>
       <c r="Q15" t="n">
         <v>28.60364634907357</v>
@@ -32102,10 +32102,10 @@
         <v>13.91263117500981</v>
       </c>
       <c r="S15" t="n">
-        <v>4.162192217163499</v>
+        <v>4.1621922171635</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9032006251648776</v>
+        <v>0.9032006251648778</v>
       </c>
       <c r="U15" t="n">
         <v>0.01474212119420367</v>
@@ -32169,22 +32169,22 @@
         <v>28.74790968587457</v>
       </c>
       <c r="O16" t="n">
-        <v>26.55334757892102</v>
+        <v>26.55334757892103</v>
       </c>
       <c r="P16" t="n">
-        <v>22.7209760863111</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.73082612229492</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R16" t="n">
-        <v>8.446929323729309</v>
+        <v>8.446929323729311</v>
       </c>
       <c r="S16" t="n">
-        <v>3.273910940879313</v>
+        <v>3.273910940879314</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8026803037106299</v>
+        <v>0.80268030371063</v>
       </c>
       <c r="U16" t="n">
         <v>0.01024698260056125</v>
@@ -32224,34 +32224,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4188046490011624</v>
+        <v>0.4188046490011625</v>
       </c>
       <c r="H17" t="n">
-        <v>4.289083111583156</v>
+        <v>4.289083111583157</v>
       </c>
       <c r="I17" t="n">
         <v>16.14596623061733</v>
       </c>
       <c r="J17" t="n">
-        <v>35.54552107816244</v>
+        <v>35.54552107816245</v>
       </c>
       <c r="K17" t="n">
-        <v>53.27352187038166</v>
+        <v>53.27352187038167</v>
       </c>
       <c r="L17" t="n">
-        <v>66.090514647251</v>
+        <v>66.09051464725101</v>
       </c>
       <c r="M17" t="n">
-        <v>73.53843182392542</v>
+        <v>73.53843182392544</v>
       </c>
       <c r="N17" t="n">
         <v>74.72836053289998</v>
       </c>
       <c r="O17" t="n">
-        <v>70.56387180439467</v>
+        <v>70.56387180439468</v>
       </c>
       <c r="P17" t="n">
-        <v>60.22463203217846</v>
+        <v>60.22463203217847</v>
       </c>
       <c r="Q17" t="n">
         <v>45.22619053982432</v>
@@ -32260,7 +32260,7 @@
         <v>26.3077375328193</v>
       </c>
       <c r="S17" t="n">
-        <v>9.543510939113999</v>
+        <v>9.543510939114</v>
       </c>
       <c r="T17" t="n">
         <v>1.83331735100259</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2240802421518957</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H18" t="n">
         <v>2.164143391309099</v>
       </c>
       <c r="I18" t="n">
-        <v>7.715043424966586</v>
+        <v>7.715043424966588</v>
       </c>
       <c r="J18" t="n">
-        <v>21.17066884295608</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K18" t="n">
-        <v>36.18404506713309</v>
+        <v>36.1840450671331</v>
       </c>
       <c r="L18" t="n">
-        <v>48.65391398127017</v>
+        <v>48.65391398127018</v>
       </c>
       <c r="M18" t="n">
         <v>56.77682275927638</v>
       </c>
       <c r="N18" t="n">
-        <v>58.27953631300555</v>
+        <v>58.27953631300556</v>
       </c>
       <c r="O18" t="n">
-        <v>53.31438989479775</v>
+        <v>53.31438989479776</v>
       </c>
       <c r="P18" t="n">
-        <v>42.78949817021595</v>
+        <v>42.78949817021596</v>
       </c>
       <c r="Q18" t="n">
         <v>28.60364634907357</v>
@@ -32339,10 +32339,10 @@
         <v>13.91263117500981</v>
       </c>
       <c r="S18" t="n">
-        <v>4.162192217163499</v>
+        <v>4.1621922171635</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9032006251648776</v>
+        <v>0.9032006251648778</v>
       </c>
       <c r="U18" t="n">
         <v>0.01474212119420367</v>
@@ -32406,22 +32406,22 @@
         <v>28.74790968587457</v>
       </c>
       <c r="O19" t="n">
-        <v>26.55334757892102</v>
+        <v>26.55334757892103</v>
       </c>
       <c r="P19" t="n">
-        <v>22.7209760863111</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.73082612229492</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R19" t="n">
-        <v>8.446929323729309</v>
+        <v>8.446929323729311</v>
       </c>
       <c r="S19" t="n">
-        <v>3.273910940879313</v>
+        <v>3.273910940879314</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8026803037106299</v>
+        <v>0.80268030371063</v>
       </c>
       <c r="U19" t="n">
         <v>0.01024698260056125</v>
@@ -32461,34 +32461,34 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4188046490011624</v>
+        <v>0.4188046490011625</v>
       </c>
       <c r="H20" t="n">
-        <v>4.289083111583156</v>
+        <v>4.289083111583157</v>
       </c>
       <c r="I20" t="n">
         <v>16.14596623061733</v>
       </c>
       <c r="J20" t="n">
-        <v>35.54552107816244</v>
+        <v>35.54552107816245</v>
       </c>
       <c r="K20" t="n">
-        <v>53.27352187038166</v>
+        <v>53.27352187038167</v>
       </c>
       <c r="L20" t="n">
-        <v>66.090514647251</v>
+        <v>66.09051464725101</v>
       </c>
       <c r="M20" t="n">
-        <v>73.53843182392542</v>
+        <v>73.53843182392544</v>
       </c>
       <c r="N20" t="n">
         <v>74.72836053289998</v>
       </c>
       <c r="O20" t="n">
-        <v>70.56387180439467</v>
+        <v>70.56387180439468</v>
       </c>
       <c r="P20" t="n">
-        <v>60.22463203217846</v>
+        <v>60.22463203217847</v>
       </c>
       <c r="Q20" t="n">
         <v>45.22619053982432</v>
@@ -32497,7 +32497,7 @@
         <v>26.3077375328193</v>
       </c>
       <c r="S20" t="n">
-        <v>9.543510939113999</v>
+        <v>9.543510939114</v>
       </c>
       <c r="T20" t="n">
         <v>1.83331735100259</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2240802421518957</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H21" t="n">
         <v>2.164143391309099</v>
       </c>
       <c r="I21" t="n">
-        <v>7.715043424966586</v>
+        <v>7.715043424966588</v>
       </c>
       <c r="J21" t="n">
-        <v>21.17066884295608</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K21" t="n">
-        <v>36.18404506713309</v>
+        <v>36.1840450671331</v>
       </c>
       <c r="L21" t="n">
-        <v>48.65391398127017</v>
+        <v>48.65391398127018</v>
       </c>
       <c r="M21" t="n">
         <v>56.77682275927638</v>
       </c>
       <c r="N21" t="n">
-        <v>58.27953631300555</v>
+        <v>58.27953631300556</v>
       </c>
       <c r="O21" t="n">
-        <v>53.31438989479775</v>
+        <v>53.31438989479776</v>
       </c>
       <c r="P21" t="n">
-        <v>42.78949817021595</v>
+        <v>42.78949817021596</v>
       </c>
       <c r="Q21" t="n">
         <v>28.60364634907357</v>
@@ -32576,10 +32576,10 @@
         <v>13.91263117500981</v>
       </c>
       <c r="S21" t="n">
-        <v>4.162192217163499</v>
+        <v>4.1621922171635</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9032006251648776</v>
+        <v>0.9032006251648778</v>
       </c>
       <c r="U21" t="n">
         <v>0.01474212119420367</v>
@@ -32643,22 +32643,22 @@
         <v>28.74790968587457</v>
       </c>
       <c r="O22" t="n">
-        <v>26.55334757892102</v>
+        <v>26.55334757892103</v>
       </c>
       <c r="P22" t="n">
-        <v>22.7209760863111</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.73082612229492</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R22" t="n">
-        <v>8.446929323729309</v>
+        <v>8.446929323729311</v>
       </c>
       <c r="S22" t="n">
-        <v>3.273910940879313</v>
+        <v>3.273910940879314</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8026803037106299</v>
+        <v>0.80268030371063</v>
       </c>
       <c r="U22" t="n">
         <v>0.01024698260056125</v>
@@ -32698,34 +32698,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4188046490011624</v>
+        <v>0.4188046490011625</v>
       </c>
       <c r="H23" t="n">
-        <v>4.289083111583156</v>
+        <v>4.289083111583157</v>
       </c>
       <c r="I23" t="n">
         <v>16.14596623061733</v>
       </c>
       <c r="J23" t="n">
-        <v>35.54552107816244</v>
+        <v>35.54552107816245</v>
       </c>
       <c r="K23" t="n">
-        <v>53.27352187038166</v>
+        <v>53.27352187038167</v>
       </c>
       <c r="L23" t="n">
-        <v>66.090514647251</v>
+        <v>66.09051464725101</v>
       </c>
       <c r="M23" t="n">
-        <v>73.53843182392542</v>
+        <v>73.53843182392544</v>
       </c>
       <c r="N23" t="n">
         <v>74.72836053289998</v>
       </c>
       <c r="O23" t="n">
-        <v>70.56387180439467</v>
+        <v>70.56387180439468</v>
       </c>
       <c r="P23" t="n">
-        <v>60.22463203217846</v>
+        <v>60.22463203217847</v>
       </c>
       <c r="Q23" t="n">
         <v>45.22619053982432</v>
@@ -32734,7 +32734,7 @@
         <v>26.3077375328193</v>
       </c>
       <c r="S23" t="n">
-        <v>9.543510939113999</v>
+        <v>9.543510939114</v>
       </c>
       <c r="T23" t="n">
         <v>1.83331735100259</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2240802421518957</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H24" t="n">
         <v>2.164143391309099</v>
       </c>
       <c r="I24" t="n">
-        <v>7.715043424966586</v>
+        <v>7.715043424966588</v>
       </c>
       <c r="J24" t="n">
-        <v>21.17066884295608</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K24" t="n">
-        <v>36.18404506713309</v>
+        <v>36.1840450671331</v>
       </c>
       <c r="L24" t="n">
-        <v>48.65391398127017</v>
+        <v>48.65391398127018</v>
       </c>
       <c r="M24" t="n">
         <v>56.77682275927638</v>
       </c>
       <c r="N24" t="n">
-        <v>58.27953631300555</v>
+        <v>58.27953631300556</v>
       </c>
       <c r="O24" t="n">
-        <v>53.31438989479775</v>
+        <v>53.31438989479776</v>
       </c>
       <c r="P24" t="n">
-        <v>42.78949817021595</v>
+        <v>42.78949817021596</v>
       </c>
       <c r="Q24" t="n">
         <v>28.60364634907357</v>
@@ -32813,10 +32813,10 @@
         <v>13.91263117500981</v>
       </c>
       <c r="S24" t="n">
-        <v>4.162192217163499</v>
+        <v>4.1621922171635</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9032006251648776</v>
+        <v>0.9032006251648778</v>
       </c>
       <c r="U24" t="n">
         <v>0.01474212119420367</v>
@@ -32880,22 +32880,22 @@
         <v>28.74790968587457</v>
       </c>
       <c r="O25" t="n">
-        <v>26.55334757892102</v>
+        <v>26.55334757892103</v>
       </c>
       <c r="P25" t="n">
-        <v>22.7209760863111</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.73082612229492</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R25" t="n">
-        <v>8.446929323729309</v>
+        <v>8.446929323729311</v>
       </c>
       <c r="S25" t="n">
-        <v>3.273910940879313</v>
+        <v>3.273910940879314</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8026803037106299</v>
+        <v>0.80268030371063</v>
       </c>
       <c r="U25" t="n">
         <v>0.01024698260056125</v>
@@ -32935,34 +32935,34 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4188046490011624</v>
+        <v>0.4188046490011625</v>
       </c>
       <c r="H26" t="n">
-        <v>4.289083111583156</v>
+        <v>4.289083111583157</v>
       </c>
       <c r="I26" t="n">
         <v>16.14596623061733</v>
       </c>
       <c r="J26" t="n">
-        <v>35.54552107816244</v>
+        <v>35.54552107816245</v>
       </c>
       <c r="K26" t="n">
-        <v>53.27352187038166</v>
+        <v>53.27352187038167</v>
       </c>
       <c r="L26" t="n">
-        <v>66.090514647251</v>
+        <v>66.09051464725101</v>
       </c>
       <c r="M26" t="n">
-        <v>73.53843182392542</v>
+        <v>73.53843182392544</v>
       </c>
       <c r="N26" t="n">
         <v>74.72836053289998</v>
       </c>
       <c r="O26" t="n">
-        <v>70.56387180439467</v>
+        <v>70.56387180439468</v>
       </c>
       <c r="P26" t="n">
-        <v>60.22463203217846</v>
+        <v>60.22463203217847</v>
       </c>
       <c r="Q26" t="n">
         <v>45.22619053982432</v>
@@ -32971,7 +32971,7 @@
         <v>26.3077375328193</v>
       </c>
       <c r="S26" t="n">
-        <v>9.543510939113999</v>
+        <v>9.543510939114</v>
       </c>
       <c r="T26" t="n">
         <v>1.83331735100259</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2240802421518957</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H27" t="n">
         <v>2.164143391309099</v>
       </c>
       <c r="I27" t="n">
-        <v>7.715043424966586</v>
+        <v>7.715043424966588</v>
       </c>
       <c r="J27" t="n">
-        <v>21.17066884295608</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K27" t="n">
-        <v>36.18404506713309</v>
+        <v>36.1840450671331</v>
       </c>
       <c r="L27" t="n">
-        <v>48.65391398127017</v>
+        <v>48.65391398127018</v>
       </c>
       <c r="M27" t="n">
         <v>56.77682275927638</v>
       </c>
       <c r="N27" t="n">
-        <v>58.27953631300555</v>
+        <v>58.27953631300556</v>
       </c>
       <c r="O27" t="n">
-        <v>53.31438989479775</v>
+        <v>53.31438989479776</v>
       </c>
       <c r="P27" t="n">
-        <v>42.78949817021595</v>
+        <v>42.78949817021596</v>
       </c>
       <c r="Q27" t="n">
         <v>28.60364634907357</v>
@@ -33050,10 +33050,10 @@
         <v>13.91263117500981</v>
       </c>
       <c r="S27" t="n">
-        <v>4.162192217163499</v>
+        <v>4.1621922171635</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9032006251648776</v>
+        <v>0.9032006251648778</v>
       </c>
       <c r="U27" t="n">
         <v>0.01474212119420367</v>
@@ -33117,22 +33117,22 @@
         <v>28.74790968587457</v>
       </c>
       <c r="O28" t="n">
-        <v>26.55334757892102</v>
+        <v>26.55334757892103</v>
       </c>
       <c r="P28" t="n">
-        <v>22.7209760863111</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.73082612229492</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R28" t="n">
-        <v>8.446929323729309</v>
+        <v>8.446929323729311</v>
       </c>
       <c r="S28" t="n">
-        <v>3.273910940879313</v>
+        <v>3.273910940879314</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8026803037106299</v>
+        <v>0.80268030371063</v>
       </c>
       <c r="U28" t="n">
         <v>0.01024698260056125</v>
@@ -33172,34 +33172,34 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4188046490011624</v>
+        <v>0.4188046490011625</v>
       </c>
       <c r="H29" t="n">
-        <v>4.289083111583156</v>
+        <v>4.289083111583157</v>
       </c>
       <c r="I29" t="n">
         <v>16.14596623061733</v>
       </c>
       <c r="J29" t="n">
-        <v>35.54552107816244</v>
+        <v>35.54552107816245</v>
       </c>
       <c r="K29" t="n">
-        <v>53.27352187038166</v>
+        <v>53.27352187038167</v>
       </c>
       <c r="L29" t="n">
-        <v>66.090514647251</v>
+        <v>66.09051464725101</v>
       </c>
       <c r="M29" t="n">
-        <v>73.53843182392542</v>
+        <v>73.53843182392544</v>
       </c>
       <c r="N29" t="n">
         <v>74.72836053289998</v>
       </c>
       <c r="O29" t="n">
-        <v>70.56387180439467</v>
+        <v>70.56387180439468</v>
       </c>
       <c r="P29" t="n">
-        <v>60.22463203217846</v>
+        <v>60.22463203217847</v>
       </c>
       <c r="Q29" t="n">
         <v>45.22619053982432</v>
@@ -33208,7 +33208,7 @@
         <v>26.3077375328193</v>
       </c>
       <c r="S29" t="n">
-        <v>9.543510939113999</v>
+        <v>9.543510939114</v>
       </c>
       <c r="T29" t="n">
         <v>1.83331735100259</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2240802421518957</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H30" t="n">
         <v>2.164143391309099</v>
       </c>
       <c r="I30" t="n">
-        <v>7.715043424966586</v>
+        <v>7.715043424966588</v>
       </c>
       <c r="J30" t="n">
-        <v>21.17066884295608</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K30" t="n">
-        <v>36.18404506713309</v>
+        <v>36.1840450671331</v>
       </c>
       <c r="L30" t="n">
-        <v>48.65391398127017</v>
+        <v>48.65391398127018</v>
       </c>
       <c r="M30" t="n">
         <v>56.77682275927638</v>
       </c>
       <c r="N30" t="n">
-        <v>58.27953631300555</v>
+        <v>58.27953631300556</v>
       </c>
       <c r="O30" t="n">
-        <v>53.31438989479775</v>
+        <v>53.31438989479776</v>
       </c>
       <c r="P30" t="n">
-        <v>42.78949817021595</v>
+        <v>42.78949817021596</v>
       </c>
       <c r="Q30" t="n">
         <v>28.60364634907357</v>
@@ -33287,10 +33287,10 @@
         <v>13.91263117500981</v>
       </c>
       <c r="S30" t="n">
-        <v>4.162192217163499</v>
+        <v>4.1621922171635</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9032006251648776</v>
+        <v>0.9032006251648778</v>
       </c>
       <c r="U30" t="n">
         <v>0.01474212119420367</v>
@@ -33354,22 +33354,22 @@
         <v>28.74790968587457</v>
       </c>
       <c r="O31" t="n">
-        <v>26.55334757892102</v>
+        <v>26.55334757892103</v>
       </c>
       <c r="P31" t="n">
-        <v>22.7209760863111</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.73082612229492</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R31" t="n">
-        <v>8.446929323729309</v>
+        <v>8.446929323729311</v>
       </c>
       <c r="S31" t="n">
-        <v>3.273910940879313</v>
+        <v>3.273910940879314</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8026803037106299</v>
+        <v>0.80268030371063</v>
       </c>
       <c r="U31" t="n">
         <v>0.01024698260056125</v>
@@ -33409,34 +33409,34 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4188046490011624</v>
+        <v>0.4188046490011625</v>
       </c>
       <c r="H32" t="n">
-        <v>4.289083111583156</v>
+        <v>4.289083111583157</v>
       </c>
       <c r="I32" t="n">
         <v>16.14596623061733</v>
       </c>
       <c r="J32" t="n">
-        <v>35.54552107816244</v>
+        <v>35.54552107816245</v>
       </c>
       <c r="K32" t="n">
-        <v>53.27352187038166</v>
+        <v>53.27352187038167</v>
       </c>
       <c r="L32" t="n">
-        <v>66.090514647251</v>
+        <v>66.09051464725101</v>
       </c>
       <c r="M32" t="n">
-        <v>73.53843182392542</v>
+        <v>73.53843182392544</v>
       </c>
       <c r="N32" t="n">
         <v>74.72836053289998</v>
       </c>
       <c r="O32" t="n">
-        <v>70.56387180439467</v>
+        <v>70.56387180439468</v>
       </c>
       <c r="P32" t="n">
-        <v>60.22463203217846</v>
+        <v>60.22463203217847</v>
       </c>
       <c r="Q32" t="n">
         <v>45.22619053982432</v>
@@ -33445,7 +33445,7 @@
         <v>26.3077375328193</v>
       </c>
       <c r="S32" t="n">
-        <v>9.543510939113999</v>
+        <v>9.543510939114</v>
       </c>
       <c r="T32" t="n">
         <v>1.83331735100259</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2240802421518957</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H33" t="n">
         <v>2.164143391309099</v>
       </c>
       <c r="I33" t="n">
-        <v>7.715043424966586</v>
+        <v>7.715043424966588</v>
       </c>
       <c r="J33" t="n">
-        <v>21.17066884295608</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K33" t="n">
-        <v>36.18404506713309</v>
+        <v>36.1840450671331</v>
       </c>
       <c r="L33" t="n">
-        <v>48.65391398127017</v>
+        <v>48.65391398127018</v>
       </c>
       <c r="M33" t="n">
         <v>56.77682275927638</v>
       </c>
       <c r="N33" t="n">
-        <v>58.27953631300555</v>
+        <v>58.27953631300556</v>
       </c>
       <c r="O33" t="n">
-        <v>53.31438989479775</v>
+        <v>53.31438989479776</v>
       </c>
       <c r="P33" t="n">
-        <v>42.78949817021595</v>
+        <v>42.78949817021596</v>
       </c>
       <c r="Q33" t="n">
         <v>28.60364634907357</v>
@@ -33524,10 +33524,10 @@
         <v>13.91263117500981</v>
       </c>
       <c r="S33" t="n">
-        <v>4.162192217163499</v>
+        <v>4.1621922171635</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9032006251648776</v>
+        <v>0.9032006251648778</v>
       </c>
       <c r="U33" t="n">
         <v>0.01474212119420367</v>
@@ -33591,22 +33591,22 @@
         <v>28.74790968587457</v>
       </c>
       <c r="O34" t="n">
-        <v>26.55334757892102</v>
+        <v>26.55334757892103</v>
       </c>
       <c r="P34" t="n">
-        <v>22.7209760863111</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.73082612229492</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R34" t="n">
-        <v>8.446929323729309</v>
+        <v>8.446929323729311</v>
       </c>
       <c r="S34" t="n">
-        <v>3.273910940879313</v>
+        <v>3.273910940879314</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8026803037106299</v>
+        <v>0.80268030371063</v>
       </c>
       <c r="U34" t="n">
         <v>0.01024698260056125</v>
@@ -33646,34 +33646,34 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4188046490011624</v>
+        <v>0.4188046490011625</v>
       </c>
       <c r="H35" t="n">
-        <v>4.289083111583156</v>
+        <v>4.289083111583157</v>
       </c>
       <c r="I35" t="n">
         <v>16.14596623061733</v>
       </c>
       <c r="J35" t="n">
-        <v>35.54552107816244</v>
+        <v>35.54552107816245</v>
       </c>
       <c r="K35" t="n">
-        <v>53.27352187038166</v>
+        <v>53.27352187038167</v>
       </c>
       <c r="L35" t="n">
-        <v>66.090514647251</v>
+        <v>66.09051464725101</v>
       </c>
       <c r="M35" t="n">
-        <v>73.53843182392542</v>
+        <v>73.53843182392544</v>
       </c>
       <c r="N35" t="n">
         <v>74.72836053289998</v>
       </c>
       <c r="O35" t="n">
-        <v>70.56387180439467</v>
+        <v>70.56387180439468</v>
       </c>
       <c r="P35" t="n">
-        <v>60.22463203217846</v>
+        <v>60.22463203217847</v>
       </c>
       <c r="Q35" t="n">
         <v>45.22619053982432</v>
@@ -33682,7 +33682,7 @@
         <v>26.3077375328193</v>
       </c>
       <c r="S35" t="n">
-        <v>9.543510939113999</v>
+        <v>9.543510939114</v>
       </c>
       <c r="T35" t="n">
         <v>1.83331735100259</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2240802421518957</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H36" t="n">
         <v>2.164143391309099</v>
       </c>
       <c r="I36" t="n">
-        <v>7.715043424966586</v>
+        <v>7.715043424966588</v>
       </c>
       <c r="J36" t="n">
-        <v>21.17066884295608</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K36" t="n">
-        <v>36.18404506713309</v>
+        <v>36.1840450671331</v>
       </c>
       <c r="L36" t="n">
-        <v>48.65391398127017</v>
+        <v>48.65391398127018</v>
       </c>
       <c r="M36" t="n">
         <v>56.77682275927638</v>
       </c>
       <c r="N36" t="n">
-        <v>58.27953631300555</v>
+        <v>58.27953631300556</v>
       </c>
       <c r="O36" t="n">
-        <v>53.31438989479775</v>
+        <v>53.31438989479776</v>
       </c>
       <c r="P36" t="n">
-        <v>42.78949817021595</v>
+        <v>42.78949817021596</v>
       </c>
       <c r="Q36" t="n">
         <v>28.60364634907357</v>
@@ -33761,10 +33761,10 @@
         <v>13.91263117500981</v>
       </c>
       <c r="S36" t="n">
-        <v>4.162192217163499</v>
+        <v>4.1621922171635</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9032006251648776</v>
+        <v>0.9032006251648778</v>
       </c>
       <c r="U36" t="n">
         <v>0.01474212119420367</v>
@@ -33828,22 +33828,22 @@
         <v>28.74790968587457</v>
       </c>
       <c r="O37" t="n">
-        <v>26.55334757892102</v>
+        <v>26.55334757892103</v>
       </c>
       <c r="P37" t="n">
-        <v>22.7209760863111</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.73082612229492</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R37" t="n">
-        <v>8.446929323729309</v>
+        <v>8.446929323729311</v>
       </c>
       <c r="S37" t="n">
-        <v>3.273910940879313</v>
+        <v>3.273910940879314</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8026803037106299</v>
+        <v>0.80268030371063</v>
       </c>
       <c r="U37" t="n">
         <v>0.01024698260056125</v>
@@ -33883,34 +33883,34 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4188046490011624</v>
+        <v>0.4188046490011625</v>
       </c>
       <c r="H38" t="n">
-        <v>4.289083111583156</v>
+        <v>4.289083111583157</v>
       </c>
       <c r="I38" t="n">
         <v>16.14596623061733</v>
       </c>
       <c r="J38" t="n">
-        <v>35.54552107816244</v>
+        <v>35.54552107816245</v>
       </c>
       <c r="K38" t="n">
-        <v>53.27352187038166</v>
+        <v>53.27352187038167</v>
       </c>
       <c r="L38" t="n">
-        <v>66.090514647251</v>
+        <v>66.09051464725101</v>
       </c>
       <c r="M38" t="n">
-        <v>73.53843182392542</v>
+        <v>73.53843182392544</v>
       </c>
       <c r="N38" t="n">
         <v>74.72836053289998</v>
       </c>
       <c r="O38" t="n">
-        <v>70.56387180439467</v>
+        <v>70.56387180439468</v>
       </c>
       <c r="P38" t="n">
-        <v>60.22463203217846</v>
+        <v>60.22463203217847</v>
       </c>
       <c r="Q38" t="n">
         <v>45.22619053982432</v>
@@ -33919,7 +33919,7 @@
         <v>26.3077375328193</v>
       </c>
       <c r="S38" t="n">
-        <v>9.543510939113999</v>
+        <v>9.543510939114</v>
       </c>
       <c r="T38" t="n">
         <v>1.83331735100259</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2240802421518957</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H39" t="n">
         <v>2.164143391309099</v>
       </c>
       <c r="I39" t="n">
-        <v>7.715043424966586</v>
+        <v>7.715043424966588</v>
       </c>
       <c r="J39" t="n">
-        <v>21.17066884295608</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K39" t="n">
-        <v>36.18404506713309</v>
+        <v>36.1840450671331</v>
       </c>
       <c r="L39" t="n">
-        <v>48.65391398127017</v>
+        <v>48.65391398127018</v>
       </c>
       <c r="M39" t="n">
         <v>56.77682275927638</v>
       </c>
       <c r="N39" t="n">
-        <v>58.27953631300555</v>
+        <v>58.27953631300556</v>
       </c>
       <c r="O39" t="n">
-        <v>53.31438989479775</v>
+        <v>53.31438989479776</v>
       </c>
       <c r="P39" t="n">
-        <v>42.78949817021595</v>
+        <v>42.78949817021596</v>
       </c>
       <c r="Q39" t="n">
         <v>28.60364634907357</v>
@@ -33998,10 +33998,10 @@
         <v>13.91263117500981</v>
       </c>
       <c r="S39" t="n">
-        <v>4.162192217163499</v>
+        <v>4.1621922171635</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9032006251648776</v>
+        <v>0.9032006251648778</v>
       </c>
       <c r="U39" t="n">
         <v>0.01474212119420367</v>
@@ -34065,22 +34065,22 @@
         <v>28.74790968587457</v>
       </c>
       <c r="O40" t="n">
-        <v>26.55334757892102</v>
+        <v>26.55334757892103</v>
       </c>
       <c r="P40" t="n">
-        <v>22.7209760863111</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.73082612229492</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R40" t="n">
-        <v>8.446929323729309</v>
+        <v>8.446929323729311</v>
       </c>
       <c r="S40" t="n">
-        <v>3.273910940879313</v>
+        <v>3.273910940879314</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8026803037106299</v>
+        <v>0.80268030371063</v>
       </c>
       <c r="U40" t="n">
         <v>0.01024698260056125</v>
@@ -34120,34 +34120,34 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4188046490011624</v>
+        <v>0.4188046490011625</v>
       </c>
       <c r="H41" t="n">
-        <v>4.289083111583156</v>
+        <v>4.289083111583157</v>
       </c>
       <c r="I41" t="n">
         <v>16.14596623061733</v>
       </c>
       <c r="J41" t="n">
-        <v>35.54552107816244</v>
+        <v>35.54552107816245</v>
       </c>
       <c r="K41" t="n">
-        <v>53.27352187038166</v>
+        <v>53.27352187038167</v>
       </c>
       <c r="L41" t="n">
-        <v>66.090514647251</v>
+        <v>66.09051464725101</v>
       </c>
       <c r="M41" t="n">
-        <v>73.53843182392542</v>
+        <v>73.53843182392544</v>
       </c>
       <c r="N41" t="n">
         <v>74.72836053289998</v>
       </c>
       <c r="O41" t="n">
-        <v>70.56387180439467</v>
+        <v>70.56387180439468</v>
       </c>
       <c r="P41" t="n">
-        <v>60.22463203217846</v>
+        <v>60.22463203217847</v>
       </c>
       <c r="Q41" t="n">
         <v>45.22619053982432</v>
@@ -34156,7 +34156,7 @@
         <v>26.3077375328193</v>
       </c>
       <c r="S41" t="n">
-        <v>9.543510939113999</v>
+        <v>9.543510939114</v>
       </c>
       <c r="T41" t="n">
         <v>1.83331735100259</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2240802421518957</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H42" t="n">
         <v>2.164143391309099</v>
       </c>
       <c r="I42" t="n">
-        <v>7.715043424966586</v>
+        <v>7.715043424966588</v>
       </c>
       <c r="J42" t="n">
-        <v>21.17066884295608</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K42" t="n">
-        <v>36.18404506713309</v>
+        <v>36.1840450671331</v>
       </c>
       <c r="L42" t="n">
-        <v>48.65391398127017</v>
+        <v>48.65391398127018</v>
       </c>
       <c r="M42" t="n">
         <v>56.77682275927638</v>
       </c>
       <c r="N42" t="n">
-        <v>58.27953631300555</v>
+        <v>58.27953631300556</v>
       </c>
       <c r="O42" t="n">
-        <v>53.31438989479775</v>
+        <v>53.31438989479776</v>
       </c>
       <c r="P42" t="n">
-        <v>42.78949817021595</v>
+        <v>42.78949817021596</v>
       </c>
       <c r="Q42" t="n">
         <v>28.60364634907357</v>
@@ -34235,10 +34235,10 @@
         <v>13.91263117500981</v>
       </c>
       <c r="S42" t="n">
-        <v>4.162192217163499</v>
+        <v>4.1621922171635</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9032006251648776</v>
+        <v>0.9032006251648778</v>
       </c>
       <c r="U42" t="n">
         <v>0.01474212119420367</v>
@@ -34302,22 +34302,22 @@
         <v>28.74790968587457</v>
       </c>
       <c r="O43" t="n">
-        <v>26.55334757892102</v>
+        <v>26.55334757892103</v>
       </c>
       <c r="P43" t="n">
-        <v>22.7209760863111</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.73082612229492</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R43" t="n">
-        <v>8.446929323729309</v>
+        <v>8.446929323729311</v>
       </c>
       <c r="S43" t="n">
-        <v>3.273910940879313</v>
+        <v>3.273910940879314</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8026803037106299</v>
+        <v>0.80268030371063</v>
       </c>
       <c r="U43" t="n">
         <v>0.01024698260056125</v>
@@ -34357,34 +34357,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4188046490011624</v>
+        <v>0.4188046490011625</v>
       </c>
       <c r="H44" t="n">
-        <v>4.289083111583156</v>
+        <v>4.289083111583157</v>
       </c>
       <c r="I44" t="n">
         <v>16.14596623061733</v>
       </c>
       <c r="J44" t="n">
-        <v>35.54552107816244</v>
+        <v>35.54552107816245</v>
       </c>
       <c r="K44" t="n">
-        <v>53.27352187038166</v>
+        <v>53.27352187038167</v>
       </c>
       <c r="L44" t="n">
-        <v>66.090514647251</v>
+        <v>66.09051464725101</v>
       </c>
       <c r="M44" t="n">
-        <v>73.53843182392542</v>
+        <v>73.53843182392544</v>
       </c>
       <c r="N44" t="n">
         <v>74.72836053289998</v>
       </c>
       <c r="O44" t="n">
-        <v>70.56387180439467</v>
+        <v>70.56387180439468</v>
       </c>
       <c r="P44" t="n">
-        <v>60.22463203217846</v>
+        <v>60.22463203217847</v>
       </c>
       <c r="Q44" t="n">
         <v>45.22619053982432</v>
@@ -34393,7 +34393,7 @@
         <v>26.3077375328193</v>
       </c>
       <c r="S44" t="n">
-        <v>9.543510939113999</v>
+        <v>9.543510939114</v>
       </c>
       <c r="T44" t="n">
         <v>1.83331735100259</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2240802421518957</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H45" t="n">
         <v>2.164143391309099</v>
       </c>
       <c r="I45" t="n">
-        <v>7.715043424966586</v>
+        <v>7.715043424966588</v>
       </c>
       <c r="J45" t="n">
-        <v>21.17066884295608</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K45" t="n">
-        <v>36.18404506713309</v>
+        <v>36.1840450671331</v>
       </c>
       <c r="L45" t="n">
-        <v>48.65391398127017</v>
+        <v>48.65391398127018</v>
       </c>
       <c r="M45" t="n">
         <v>56.77682275927638</v>
       </c>
       <c r="N45" t="n">
-        <v>58.27953631300555</v>
+        <v>58.27953631300556</v>
       </c>
       <c r="O45" t="n">
-        <v>53.31438989479775</v>
+        <v>53.31438989479776</v>
       </c>
       <c r="P45" t="n">
-        <v>42.78949817021595</v>
+        <v>42.78949817021596</v>
       </c>
       <c r="Q45" t="n">
         <v>28.60364634907357</v>
@@ -34472,10 +34472,10 @@
         <v>13.91263117500981</v>
       </c>
       <c r="S45" t="n">
-        <v>4.162192217163499</v>
+        <v>4.1621922171635</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9032006251648776</v>
+        <v>0.9032006251648778</v>
       </c>
       <c r="U45" t="n">
         <v>0.01474212119420367</v>
@@ -34539,22 +34539,22 @@
         <v>28.74790968587457</v>
       </c>
       <c r="O46" t="n">
-        <v>26.55334757892102</v>
+        <v>26.55334757892103</v>
       </c>
       <c r="P46" t="n">
-        <v>22.7209760863111</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.73082612229492</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R46" t="n">
-        <v>8.446929323729309</v>
+        <v>8.446929323729311</v>
       </c>
       <c r="S46" t="n">
-        <v>3.273910940879313</v>
+        <v>3.273910940879314</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8026803037106299</v>
+        <v>0.80268030371063</v>
       </c>
       <c r="U46" t="n">
         <v>0.01024698260056125</v>
@@ -35410,25 +35410,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>80.70032049571114</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>49.09995541255843</v>
+        <v>49.09995541255844</v>
       </c>
       <c r="M11" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="N11" t="n">
         <v>78.24522996402479</v>
       </c>
       <c r="O11" t="n">
-        <v>36.60257132819584</v>
+        <v>36.60257132819585</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>80.70032049571122</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.3909631025661</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>82.66266089709396</v>
+        <v>79.32275540630231</v>
       </c>
       <c r="M12" t="n">
-        <v>39.9317923037362</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="O12" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="P12" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35553,7 +35553,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>3.155292402803261</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35562,19 +35562,19 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>39.96284480684773</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="M13" t="n">
-        <v>82.66266089709396</v>
+        <v>43.11813720965073</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>82.66266089709396</v>
+        <v>49.09995541255844</v>
       </c>
       <c r="M14" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="N14" t="n">
         <v>78.24522996402479</v>
       </c>
       <c r="O14" t="n">
-        <v>82.66266089709396</v>
+        <v>36.60257132819585</v>
       </c>
       <c r="P14" t="n">
-        <v>1.077525442277498</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>70.16991481538938</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>10.53040568032186</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>79.32275540630228</v>
+        <v>79.32275540630231</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="N15" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="P15" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,19 +35778,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>27.03586353808302</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>35.93473262823093</v>
       </c>
       <c r="D16" t="n">
-        <v>59.47013395234026</v>
+        <v>59.4701339523404</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>62.97664299082612</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>65.72590198460446</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35799,22 +35799,22 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>39.96284480684779</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>66.3106641544051</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35887,16 +35887,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>49.09995541255843</v>
+        <v>49.09995541255844</v>
       </c>
       <c r="M17" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="N17" t="n">
         <v>78.24522996402479</v>
       </c>
       <c r="O17" t="n">
-        <v>36.60257132819584</v>
+        <v>36.60257132819585</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35908,13 +35908,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>65.41667755634656</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>65.41667755634661</v>
       </c>
       <c r="V17" t="n">
         <v>15.2836429393646</v>
@@ -35966,19 +35966,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="M18" t="n">
-        <v>79.32275540630228</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>82.66266089709396</v>
+        <v>79.32275540630231</v>
       </c>
       <c r="O18" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>80.70032049571114</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>49.09995541255843</v>
+        <v>49.09995541255844</v>
       </c>
       <c r="M20" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="N20" t="n">
         <v>78.24522996402479</v>
       </c>
       <c r="O20" t="n">
-        <v>36.60257132819584</v>
+        <v>36.60257132819585</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36151,10 +36151,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>65.41667755634661</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>15.2836429393646</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="M21" t="n">
-        <v>82.66266089709396</v>
+        <v>79.32275540630231</v>
       </c>
       <c r="N21" t="n">
-        <v>79.32275540630228</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="P21" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>49.09995541255843</v>
+        <v>49.09995541255844</v>
       </c>
       <c r="M23" t="n">
         <v>82.66266089709399</v>
@@ -36370,7 +36370,7 @@
         <v>78.24522996402479</v>
       </c>
       <c r="O23" t="n">
-        <v>36.60257132819584</v>
+        <v>36.60257132819585</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36385,13 +36385,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>80.70032049571122</v>
       </c>
       <c r="U23" t="n">
-        <v>65.41667755634661</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>15.2836429393646</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>82.66266089709399</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="O24" t="n">
+        <v>79.32275540630231</v>
+      </c>
+      <c r="P24" t="n">
         <v>82.66266089709399</v>
-      </c>
-      <c r="P24" t="n">
-        <v>79.32275540630231</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,10 +36595,10 @@
         <v>137.0896028553035</v>
       </c>
       <c r="K26" t="n">
-        <v>207.6556096098146</v>
+        <v>207.6556096098147</v>
       </c>
       <c r="L26" t="n">
-        <v>261.9454340807535</v>
+        <v>261.945434080753</v>
       </c>
       <c r="M26" t="n">
         <v>296.6462756582027</v>
@@ -36607,16 +36607,16 @@
         <v>291.0907086322193</v>
       </c>
       <c r="O26" t="n">
-        <v>249.4480499963903</v>
+        <v>249.4480499963907</v>
       </c>
       <c r="P26" t="n">
-        <v>199.4914187740648</v>
+        <v>199.4914187740649</v>
       </c>
       <c r="Q26" t="n">
         <v>124.4388415088087</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72310014546523</v>
+        <v>18.72310014546526</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>185.150182684414</v>
       </c>
       <c r="N27" t="n">
-        <v>208.6565061459615</v>
+        <v>208.6565061459616</v>
       </c>
       <c r="O27" t="n">
         <v>134.5697545638963</v>
@@ -36726,19 +36726,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.2285580032264</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>46.38829769622217</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>67.66282841748381</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>71.16933745596953</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>3.640959731121809</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,10 +36747,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>48.15553927199119</v>
       </c>
       <c r="J28" t="n">
-        <v>92.98914617001675</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>22.71681856819712</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.08243983134844</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0896028553036</v>
+        <v>137.0896028553035</v>
       </c>
       <c r="K29" t="n">
         <v>207.6556096098147</v>
       </c>
       <c r="L29" t="n">
-        <v>261.9454340807525</v>
+        <v>261.945434080753</v>
       </c>
       <c r="M29" t="n">
         <v>296.6462756582027</v>
       </c>
       <c r="N29" t="n">
-        <v>291.0907086322194</v>
+        <v>291.0907086322193</v>
       </c>
       <c r="O29" t="n">
         <v>249.4480499963904</v>
       </c>
       <c r="P29" t="n">
-        <v>199.4914187740649</v>
+        <v>199.4914187740657</v>
       </c>
       <c r="Q29" t="n">
         <v>124.4388415088087</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72310014546532</v>
+        <v>18.72310014546526</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,7 +36920,7 @@
         <v>185.150182684414</v>
       </c>
       <c r="N30" t="n">
-        <v>208.6565061459615</v>
+        <v>208.6565061459616</v>
       </c>
       <c r="O30" t="n">
         <v>134.5697545638963</v>
@@ -36966,16 +36966,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.38829769622217</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>67.66282841748381</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>49.04724000933461</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>73.91859644974787</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,7 +36984,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>48.15553927199125</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>179.2021513110497</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.659271989747113</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0896028553036</v>
+        <v>137.0896028553035</v>
       </c>
       <c r="K32" t="n">
         <v>207.6556096098147</v>
@@ -37078,7 +37078,7 @@
         <v>296.6462756582027</v>
       </c>
       <c r="N32" t="n">
-        <v>291.0907086322194</v>
+        <v>291.0907086322193</v>
       </c>
       <c r="O32" t="n">
         <v>249.4480499963904</v>
@@ -37090,7 +37090,7 @@
         <v>124.4388415088087</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72310014546531</v>
+        <v>18.72310014546528</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>185.150182684414</v>
       </c>
       <c r="N33" t="n">
-        <v>208.6565061459615</v>
+        <v>208.6565061459616</v>
       </c>
       <c r="O33" t="n">
         <v>134.5697545638963</v>
@@ -37203,28 +37203,28 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>46.3882976962222</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>21.48524921718084</v>
       </c>
       <c r="F34" t="n">
-        <v>73.91859644974792</v>
+        <v>73.91859644974789</v>
       </c>
       <c r="G34" t="n">
-        <v>44.15012488792657</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>47.06927993764615</v>
       </c>
       <c r="I34" t="n">
-        <v>48.15553927199125</v>
+        <v>48.15553927199122</v>
       </c>
       <c r="J34" t="n">
-        <v>61.13342997337537</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.659271989747113</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37306,34 +37306,34 @@
         <v>159.9229596905267</v>
       </c>
       <c r="K35" t="n">
-        <v>230.4889664450378</v>
+        <v>147.3325897183761</v>
       </c>
       <c r="L35" t="n">
-        <v>121.5648152547034</v>
+        <v>284.7787909159761</v>
       </c>
       <c r="M35" t="n">
-        <v>319.4796324934259</v>
+        <v>83.80079699000819</v>
       </c>
       <c r="N35" t="n">
-        <v>313.9240654674425</v>
+        <v>78.24522996402479</v>
       </c>
       <c r="O35" t="n">
         <v>272.2814068316135</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>222.3247756092881</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>147.2721983440319</v>
       </c>
       <c r="R35" t="n">
         <v>41.55645698068842</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>8.437239664472671</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>13.26585845443222</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37394,7 +37394,7 @@
         <v>185.150182684414</v>
       </c>
       <c r="N36" t="n">
-        <v>208.6565061459615</v>
+        <v>208.6565061459616</v>
       </c>
       <c r="O36" t="n">
         <v>134.5697545638963</v>
@@ -37543,10 +37543,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>80.0139535699572</v>
+        <v>99.77911099204356</v>
       </c>
       <c r="L38" t="n">
-        <v>284.7787909159761</v>
+        <v>284.7787909159762</v>
       </c>
       <c r="M38" t="n">
         <v>319.4796324934259</v>
@@ -37555,22 +37555,22 @@
         <v>313.9240654674425</v>
       </c>
       <c r="O38" t="n">
-        <v>36.60257132819584</v>
+        <v>272.2814068316136</v>
       </c>
       <c r="P38" t="n">
-        <v>222.324775609288</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>147.2721983440318</v>
+        <v>147.2721983440319</v>
       </c>
       <c r="R38" t="n">
-        <v>41.55645698068842</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>8.437239664472727</v>
       </c>
       <c r="T38" t="n">
-        <v>13.26585845443222</v>
+        <v>13.26585845443227</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>185.150182684414</v>
       </c>
       <c r="N39" t="n">
-        <v>208.6565061459615</v>
+        <v>208.6565061459616</v>
       </c>
       <c r="O39" t="n">
         <v>134.5697545638963</v>
@@ -37692,13 +37692,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>69.90263677286934</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>49.51321572501521</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>107.4754123626474</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -37728,7 +37728,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>11.94044013523735</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37780,34 +37780,34 @@
         <v>159.9229596905267</v>
       </c>
       <c r="K41" t="n">
-        <v>230.4889664450378</v>
+        <v>230.4889664450379</v>
       </c>
       <c r="L41" t="n">
-        <v>196.705593959657</v>
+        <v>201.622414189314</v>
       </c>
       <c r="M41" t="n">
-        <v>83.80079699000818</v>
+        <v>83.80079699000819</v>
       </c>
       <c r="N41" t="n">
-        <v>313.9240654674425</v>
+        <v>78.24522996402479</v>
       </c>
       <c r="O41" t="n">
-        <v>272.2814068316135</v>
+        <v>272.2814068316136</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>222.3247756092881</v>
       </c>
       <c r="Q41" t="n">
-        <v>147.2721983440318</v>
+        <v>147.2721983440319</v>
       </c>
       <c r="R41" t="n">
-        <v>41.55645698068842</v>
+        <v>41.55645698068848</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>8.437239664472727</v>
       </c>
       <c r="T41" t="n">
-        <v>13.26585845443222</v>
+        <v>13.26585845443227</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>185.150182684414</v>
       </c>
       <c r="N42" t="n">
-        <v>208.6565061459615</v>
+        <v>208.6565061459616</v>
       </c>
       <c r="O42" t="n">
         <v>134.5697545638963</v>
@@ -37914,10 +37914,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>69.22165453144538</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>50.19419796643918</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>119.4158524978847</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>159.9229596905267</v>
       </c>
       <c r="K44" t="n">
-        <v>54.00913232933284</v>
+        <v>230.4889664450378</v>
       </c>
       <c r="L44" t="n">
-        <v>284.7787909159761</v>
+        <v>251.6161108344754</v>
       </c>
       <c r="M44" t="n">
         <v>319.4796324934259</v>
       </c>
       <c r="N44" t="n">
-        <v>313.9240654674425</v>
+        <v>78.24522996402479</v>
       </c>
       <c r="O44" t="n">
-        <v>272.2814068316135</v>
+        <v>36.60257132819585</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>222.3247756092881</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>147.2721983440319</v>
       </c>
       <c r="R44" t="n">
-        <v>41.55645698068842</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>185.150182684414</v>
       </c>
       <c r="N45" t="n">
-        <v>208.6565061459615</v>
+        <v>208.6565061459616</v>
       </c>
       <c r="O45" t="n">
         <v>134.5697545638963</v>
@@ -38160,7 +38160,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>96.75195328497102</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>119.4158524978847</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>22.6638992129137</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
